--- a/testseason.xlsx
+++ b/testseason.xlsx
@@ -9,10 +9,35 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9450" firstSheet="13" activeTab="16"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Team Info" sheetId="1" r:id="rId1"/>
+    <sheet name="Races" sheetId="46" r:id="rId2"/>
+    <sheet name="Washington" sheetId="2" r:id="rId3"/>
+    <sheet name="Brown" sheetId="3" r:id="rId4"/>
+    <sheet name="Stanford" sheetId="4" r:id="rId5"/>
+    <sheet name="Oregon State" sheetId="26" r:id="rId6"/>
+    <sheet name="Columbia" sheetId="27" r:id="rId7"/>
+    <sheet name="California" sheetId="28" r:id="rId8"/>
+    <sheet name="Princeton" sheetId="29" r:id="rId9"/>
+    <sheet name="Harvard" sheetId="30" r:id="rId10"/>
+    <sheet name="Northeastern" sheetId="31" r:id="rId11"/>
+    <sheet name="Yale" sheetId="32" r:id="rId12"/>
+    <sheet name="BU" sheetId="33" r:id="rId13"/>
+    <sheet name="Navy" sheetId="34" r:id="rId14"/>
+    <sheet name="Cornell" sheetId="35" r:id="rId15"/>
+    <sheet name="Pennsylvania" sheetId="36" r:id="rId16"/>
+    <sheet name="Dartmouth" sheetId="37" r:id="rId17"/>
+    <sheet name="FIT" sheetId="38" r:id="rId18"/>
+    <sheet name="Wisconsin" sheetId="39" r:id="rId19"/>
+    <sheet name="Hobart" sheetId="40" r:id="rId20"/>
+    <sheet name="Holy Cross" sheetId="41" r:id="rId21"/>
+    <sheet name="Syracuse" sheetId="42" r:id="rId22"/>
+    <sheet name="Drexel" sheetId="43" r:id="rId23"/>
+    <sheet name="G Washington" sheetId="44" r:id="rId24"/>
+    <sheet name="OK City" sheetId="45" r:id="rId25"/>
+    <sheet name="Santa Clara" sheetId="47" r:id="rId26"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="116">
   <si>
     <t>Team Simulation</t>
   </si>
@@ -92,7 +117,286 @@
     <t>Gustavo Abdelnour</t>
   </si>
   <si>
-    <t>Landon</t>
+    <t>Nico Cserepy</t>
+  </si>
+  <si>
+    <t>Sam Busco</t>
+  </si>
+  <si>
+    <t>Will Alexander</t>
+  </si>
+  <si>
+    <t>James Barnett</t>
+  </si>
+  <si>
+    <t>Jack Barry</t>
+  </si>
+  <si>
+    <t>Paul Jacquot</t>
+  </si>
+  <si>
+    <t>Nate Goodman</t>
+  </si>
+  <si>
+    <t>Sholto Carnegie</t>
+  </si>
+  <si>
+    <t>Dougall Hamilton</t>
+  </si>
+  <si>
+    <t>Luca Lovisolo</t>
+  </si>
+  <si>
+    <t>Sebastian Peter</t>
+  </si>
+  <si>
+    <t>Sam Pettet</t>
+  </si>
+  <si>
+    <t>Ivan Piton</t>
+  </si>
+  <si>
+    <t>Viktor Pivac</t>
+  </si>
+  <si>
+    <t>Michael Bernerius</t>
+  </si>
+  <si>
+    <t>Jack Cleary</t>
+  </si>
+  <si>
+    <t>Jack Conlin</t>
+  </si>
+  <si>
+    <t>Christian Cuellar</t>
+  </si>
+  <si>
+    <t>Christopher Duval</t>
+  </si>
+  <si>
+    <t>Colin Fitzpatrick</t>
+  </si>
+  <si>
+    <t>David Desantis</t>
+  </si>
+  <si>
+    <t>Julian Goldman</t>
+  </si>
+  <si>
+    <t>Douglas Guyett</t>
+  </si>
+  <si>
+    <t>John Helmers</t>
+  </si>
+  <si>
+    <t>Patrick Konttinen</t>
+  </si>
+  <si>
+    <t>Tim Livingstone</t>
+  </si>
+  <si>
+    <t>Jonathan Lord</t>
+  </si>
+  <si>
+    <t>1V8</t>
+  </si>
+  <si>
+    <t>2V8</t>
+  </si>
+  <si>
+    <t>3V8</t>
+  </si>
+  <si>
+    <t>1F8</t>
+  </si>
+  <si>
+    <t>1V4</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>Name:</t>
+  </si>
+  <si>
+    <t>v Brown</t>
+  </si>
+  <si>
+    <t>v Cal</t>
+  </si>
+  <si>
+    <t>Windermere</t>
+  </si>
+  <si>
+    <t>Pac-12</t>
+  </si>
+  <si>
+    <t>IRA</t>
+  </si>
+  <si>
+    <t>Boat:</t>
+  </si>
+  <si>
+    <t>2V-6:04.3</t>
+  </si>
+  <si>
+    <t>v Stanford</t>
+  </si>
+  <si>
+    <t>v Oregon State</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>v Yale</t>
+  </si>
+  <si>
+    <t>v Washington</t>
+  </si>
+  <si>
+    <t>v Northeastern</t>
+  </si>
+  <si>
+    <t>v Harvard</t>
+  </si>
+  <si>
+    <t>v Dartmouth</t>
+  </si>
+  <si>
+    <t>v Princeton</t>
+  </si>
+  <si>
+    <t>EARC</t>
+  </si>
+  <si>
+    <t>4V8</t>
+  </si>
+  <si>
+    <t>3V-5:54.51</t>
+  </si>
+  <si>
+    <t>3V-5:58.7</t>
+  </si>
+  <si>
+    <t>EARC-Petite</t>
+  </si>
+  <si>
+    <t>IRA-Petite</t>
+  </si>
+  <si>
+    <t>SDCC</t>
+  </si>
+  <si>
+    <t>v BU</t>
+  </si>
+  <si>
+    <t>v Santa Clara</t>
+  </si>
+  <si>
+    <t>v Wisconsin</t>
+  </si>
+  <si>
+    <t>EARC-3</t>
+  </si>
+  <si>
+    <t>IRA-3</t>
+  </si>
+  <si>
+    <t>IRA-4</t>
+  </si>
+  <si>
+    <t>v  Cal</t>
+  </si>
+  <si>
+    <t>v Florida Tech</t>
+  </si>
+  <si>
+    <t>Alumni Cup</t>
+  </si>
+  <si>
+    <t>Childs Cup</t>
+  </si>
+  <si>
+    <t>Blackwell Cup</t>
+  </si>
+  <si>
+    <t>Doc Lusins</t>
+  </si>
+  <si>
+    <t>v Georgetown</t>
+  </si>
+  <si>
+    <t>v Navy</t>
+  </si>
+  <si>
+    <t>Compton Cup</t>
+  </si>
+  <si>
+    <t>Carnegie Cup</t>
+  </si>
+  <si>
+    <t>Harvard, Cornell, GW</t>
+  </si>
+  <si>
+    <t>2V-5:46.5</t>
+  </si>
+  <si>
+    <t>Adams Cup</t>
+  </si>
+  <si>
+    <t>2V-5:49.49</t>
+  </si>
+  <si>
+    <t>v Penn</t>
+  </si>
+  <si>
+    <t>v Wisco</t>
+  </si>
+  <si>
+    <t>v Holy Cross</t>
+  </si>
+  <si>
+    <t>2V- 5:52.0</t>
+  </si>
+  <si>
+    <t>Navy, GW, Hobart</t>
+  </si>
+  <si>
+    <t>Goes Cup</t>
+  </si>
+  <si>
+    <t>Maderia Cup</t>
+  </si>
+  <si>
+    <t>McCausland Cup</t>
+  </si>
+  <si>
+    <t>3V-6:06.7</t>
+  </si>
+  <si>
+    <t>5V8</t>
+  </si>
+  <si>
+    <t>4V-5:55.31</t>
+  </si>
+  <si>
+    <t>4V-6:23.0</t>
+  </si>
+  <si>
+    <t>4V-5:57.6</t>
+  </si>
+  <si>
+    <t>v Syracuse</t>
+  </si>
+  <si>
+    <t>4V-6:01.2</t>
   </si>
 </sst>
 </file>
@@ -128,8 +432,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,126 +718,6447 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1">
+        <v>42098</v>
+      </c>
+      <c r="D1" s="1">
+        <v>42105</v>
+      </c>
+      <c r="E1" s="1">
+        <v>42112</v>
+      </c>
+      <c r="F1" s="1">
+        <v>42119</v>
+      </c>
+      <c r="G1" s="1">
+        <v>42126</v>
+      </c>
+      <c r="H1" s="1">
+        <v>42141</v>
+      </c>
+      <c r="I1" s="1">
+        <v>42141</v>
+      </c>
+      <c r="J1" s="1">
+        <v>42155</v>
+      </c>
+      <c r="K1" s="1">
+        <v>42155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4.1956018518518523E-3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4.5682870370370365E-3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4.0324074074074073E-3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4.1925925925925924E-3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3.9434027777777774E-3</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3">
+        <v>3.960069444444444E-3</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3">
+        <v>3.9199074074074075E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4.2893518518518524E-3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4.4722222222222221E-3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.24027777777777778</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.2538194444444446E-3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>4.0310185185185188E-3</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3">
+        <v>4.0822222222222223E-3</v>
+      </c>
+      <c r="J4" s="3">
+        <v>3.9670138888888888E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4.6400462962962958E-3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4.6122685185185181E-3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4.1006944444444441E-3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4.3072916666666667E-3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4.1006944444444441E-3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4.1206597222222226E-3</v>
+      </c>
+      <c r="K5" s="3">
+        <v>3.9721527777777776E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4.4131944444444444E-3</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4.5034722222222221E-3</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4.2603009259259252E-3</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3">
+        <v>4.0116203703703703E-3</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="3">
+        <v>4.7380787037037035E-3</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="K9" s="3">
+        <v>4.5768865740740744E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1">
+        <v>42098</v>
+      </c>
+      <c r="D1" s="1">
+        <v>42106</v>
+      </c>
+      <c r="E1" s="1">
+        <v>42112</v>
+      </c>
+      <c r="F1" s="1">
+        <v>42126</v>
+      </c>
+      <c r="G1" s="1">
+        <v>42127</v>
+      </c>
+      <c r="H1" s="1">
+        <v>42141</v>
+      </c>
+      <c r="I1" s="1">
+        <v>42155</v>
+      </c>
+      <c r="J1" s="1">
+        <v>42155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4.1122685185185186E-3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4.2075231481481486E-3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4.1636574074074076E-3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3.9695601851851845E-3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>4.5023148148148149E-3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>3.9014930555555556E-3</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3">
+        <v>3.950185185185185E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4.2766203703703707E-3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4.31712962962963E-3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4.0459490740740742E-3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.0024305555555559E-3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>4.6296296296296302E-3</v>
+      </c>
+      <c r="H4" s="3">
+        <v>3.9934143518518522E-3</v>
+      </c>
+      <c r="I4" s="3">
+        <v>3.9952314814814816E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4.1655092592592586E-3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4.3981481481481484E-3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4.0798611111111114E-3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4.1055555555555559E-3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4.6874999999999998E-3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4.1785995370370371E-3</v>
+      </c>
+      <c r="I5" s="3">
+        <v>4.0827430555555556E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4.6747685185185182E-3</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4.9409722222222225E-3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>4.7253472222222219E-3</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4.7130787037037037E-3</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>4.4890162037037043E-3</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1">
+        <v>42091</v>
+      </c>
+      <c r="D1" s="1">
+        <v>42105</v>
+      </c>
+      <c r="E1" s="1">
+        <v>42112</v>
+      </c>
+      <c r="F1" s="1">
+        <v>42119</v>
+      </c>
+      <c r="G1" s="1">
+        <v>42141</v>
+      </c>
+      <c r="H1" s="1">
+        <v>42155</v>
+      </c>
+      <c r="I1" s="1">
+        <v>42155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3.8778935185185184E-3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3.7372685185185187E-3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3.9467592592592592E-3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4.2719907407407403E-3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3.8860995370370369E-3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>3.9106712962962966E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4.0515046296296297E-3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3.8460648148148147E-3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4.0324074074074073E-3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.4398148148148148E-3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>4.0585069444444444E-3</v>
+      </c>
+      <c r="I4" s="3">
+        <v>3.9933564814814814E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4.1762731481481486E-3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3.8680555555555556E-3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4.1312500000000004E-3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4.4120370370370372E-3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4.1099652777777775E-3</v>
+      </c>
+      <c r="I5" s="3">
+        <v>4.0650925925925932E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>4.534502314814815E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1">
+        <v>42097</v>
+      </c>
+      <c r="D1" s="1">
+        <v>42098</v>
+      </c>
+      <c r="E1" s="1">
+        <v>42106</v>
+      </c>
+      <c r="F1" s="1">
+        <v>42112</v>
+      </c>
+      <c r="G1" s="1">
+        <v>42119</v>
+      </c>
+      <c r="H1" s="1">
+        <v>42126</v>
+      </c>
+      <c r="I1" s="1">
+        <v>42141</v>
+      </c>
+      <c r="J1" s="1">
+        <v>42155</v>
+      </c>
+      <c r="K1" s="1">
+        <v>42155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4.1863425925925931E-3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4.0486111111111113E-3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4.2060185185185187E-3</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.24652777777777779</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.26111111111111113</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4.3832291666666664E-3</v>
+      </c>
+      <c r="I3" s="3">
+        <v>3.9772685185185189E-3</v>
+      </c>
+      <c r="J3" s="3">
+        <v>3.9300231481481478E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4.3486111111111113E-3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4.130787037037037E-3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4.3229166666666667E-3</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.24861111111111112</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.26111111111111113</v>
+      </c>
+      <c r="H4" s="3">
+        <v>4.4920370370370366E-3</v>
+      </c>
+      <c r="I4" s="3">
+        <v>3.9934143518518522E-3</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3">
+        <v>3.9157870370370371E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="E5" s="3">
+        <v>4.4008101851851856E-3</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4.4558680555555558E-3</v>
+      </c>
+      <c r="I5" s="3">
+        <v>4.1340740740740739E-3</v>
+      </c>
+      <c r="J5" s="3">
+        <v>4.0352662037037032E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="I9" s="3">
+        <v>4.6536689814814817E-3</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4.5662847222222224E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1">
+        <v>42091</v>
+      </c>
+      <c r="D1" s="1">
+        <v>42098</v>
+      </c>
+      <c r="E1" s="1">
+        <v>42105</v>
+      </c>
+      <c r="F1" s="1">
+        <v>42112</v>
+      </c>
+      <c r="G1" s="1">
+        <v>42119</v>
+      </c>
+      <c r="H1" s="1">
+        <v>42127</v>
+      </c>
+      <c r="I1" s="1">
+        <v>42141</v>
+      </c>
+      <c r="J1" s="1">
+        <v>42141</v>
+      </c>
+      <c r="K1" s="1">
+        <v>42155</v>
+      </c>
+      <c r="L1" s="1">
+        <v>42155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4.2318287037037038E-3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4.4467592592592588E-3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3.7870370370370367E-3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3.929398148148148E-3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>4.1996527777777778E-3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I3" s="3">
+        <v>3.9401041666666673E-3</v>
+      </c>
+      <c r="L3" s="3">
+        <v>3.9350810185185183E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4.3424768518518517E-3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4.5983796296296293E-3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4.0069444444444441E-3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.0902777777777777E-3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>4.3008101851851853E-3</v>
+      </c>
+      <c r="H4" s="3">
+        <v>4.1782407407407402E-3</v>
+      </c>
+      <c r="I4" s="3">
+        <v>4.1787615740740743E-3</v>
+      </c>
+      <c r="K4" s="3">
+        <v>4.0890393518518515E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4.6851851851851846E-3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3.9560185185185184E-3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4.0821759259259257E-3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4.3356481481481484E-3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4.2534722222222219E-3</v>
+      </c>
+      <c r="I5" s="3">
+        <v>4.1574421296296299E-3</v>
+      </c>
+      <c r="L5" s="3">
+        <v>4.1138773148148141E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
+        <v>4.7141203703703703E-3</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4.2835648148148147E-3</v>
+      </c>
+      <c r="G8" s="3">
+        <v>4.3615740740740741E-3</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3">
+        <v>4.3001736111111114E-3</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3">
+        <v>4.2572800925925929E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4.9884259259259265E-3</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="L9" s="3">
+        <v>4.602581018518518E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1">
+        <v>42098</v>
+      </c>
+      <c r="D1" s="1">
+        <v>42112</v>
+      </c>
+      <c r="E1" s="1">
+        <v>42119</v>
+      </c>
+      <c r="F1" s="1">
+        <v>42126</v>
+      </c>
+      <c r="G1" s="1">
+        <v>42141</v>
+      </c>
+      <c r="H1" s="1">
+        <v>42141</v>
+      </c>
+      <c r="I1" s="1">
+        <v>42155</v>
+      </c>
+      <c r="J1" s="1">
+        <v>42155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4.2395833333333339E-3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3.9189814814814816E-3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4.355324074074074E-3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3.8819444444444444E-3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3.9830439814814815E-3</v>
+      </c>
+      <c r="I3" s="3">
+        <v>3.9648842592592591E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4.3136574074074075E-3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4.0162037037037033E-3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4.4814814814814813E-3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3.9699074074074072E-3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>4.0728356481481483E-3</v>
+      </c>
+      <c r="I4" s="3">
+        <v>3.9923495370370373E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4.5763888888888885E-3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4.0081018518518521E-3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4.3391203703703699E-3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4.0393518518518521E-3</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
+        <v>4.0797800925925923E-3</v>
+      </c>
+      <c r="I5" s="3">
+        <v>4.0796875E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4.5763888888888885E-3</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4.1793981481481482E-3</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
+        <v>4.0578703703703705E-3</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
+        <v>4.2439930555555555E-3</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3">
+        <v>4.1123842592592592E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="I9" s="3">
+        <v>4.6619675925925926E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1">
+        <v>42084</v>
+      </c>
+      <c r="D1" s="1">
+        <v>42091</v>
+      </c>
+      <c r="E1" s="1">
+        <v>42098</v>
+      </c>
+      <c r="F1" s="1">
+        <v>42105</v>
+      </c>
+      <c r="G1" s="1">
+        <v>42112</v>
+      </c>
+      <c r="H1" s="1">
+        <v>42119</v>
+      </c>
+      <c r="I1" s="1">
+        <v>42126</v>
+      </c>
+      <c r="J1" s="1">
+        <v>42141</v>
+      </c>
+      <c r="K1" s="1">
+        <v>42155</v>
+      </c>
+      <c r="L1" s="1">
+        <v>42155</v>
+      </c>
+      <c r="M1" s="1">
+        <v>42155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4.0127314814814817E-3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4.2092592592592589E-3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4.0879629629629625E-3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4.2881944444444443E-3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3.9972222222222223E-3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4.3048611111111109E-3</v>
+      </c>
+      <c r="I3" s="3">
+        <v>3.9027777777777776E-3</v>
+      </c>
+      <c r="J3" s="3">
+        <v>3.9699305555555555E-3</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3">
+        <v>3.9659374999999998E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4.1053240740740746E-3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4.2619212962962958E-3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4.2557870370370362E-3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.4247685185185189E-3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>4.1177083333333335E-3</v>
+      </c>
+      <c r="H4" s="3">
+        <v>4.2695601851851853E-3</v>
+      </c>
+      <c r="I4" s="3">
+        <v>4.0659722222222226E-3</v>
+      </c>
+      <c r="J4" s="3">
+        <v>4.141898148148148E-3</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3">
+        <v>4.0709374999999999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4.1724537037037043E-3</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
+        <v>4.3530092592592596E-3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4.4513888888888893E-3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4.0937499999999993E-3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4.4699074074074077E-3</v>
+      </c>
+      <c r="I5" s="3">
+        <v>4.2314814814814819E-3</v>
+      </c>
+      <c r="J5" s="3">
+        <v>4.2657638888888884E-3</v>
+      </c>
+      <c r="K5" s="3">
+        <v>4.1733333333333336E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4.108796296296297E-3</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="H8" s="3">
+        <v>4.3546296296296302E-3</v>
+      </c>
+      <c r="I8" s="3">
+        <v>4.0821759259259257E-3</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4.1405555555555553E-3</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="M8" s="3">
+        <v>4.0165972222222226E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4.8101851851851856E-3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5.0763888888888881E-3</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="J9" s="3">
+        <v>4.7032986111111112E-3</v>
+      </c>
+      <c r="K9" s="3">
+        <v>4.6000347222222224E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1">
+        <v>42098</v>
+      </c>
+      <c r="D1" s="1">
+        <v>42105</v>
+      </c>
+      <c r="E1" s="1">
+        <v>42112</v>
+      </c>
+      <c r="F1" s="1">
+        <v>42119</v>
+      </c>
+      <c r="G1" s="1">
+        <v>42126</v>
+      </c>
+      <c r="H1" s="1">
+        <v>42133</v>
+      </c>
+      <c r="I1" s="1">
+        <v>42141</v>
+      </c>
+      <c r="J1" s="1">
+        <v>42141</v>
+      </c>
+      <c r="K1" s="1">
+        <v>42155</v>
+      </c>
+      <c r="L1" s="1">
+        <v>42155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4.31712962962963E-3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3.8090277777777779E-3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4.2245370370370371E-3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3.7094907407407406E-3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3.929398148148148E-3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>3.9814814814814817E-3</v>
+      </c>
+      <c r="I3" s="3">
+        <v>4.0006481481481481E-3</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3">
+        <v>3.970532407407407E-3</v>
+      </c>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4.5686342592592593E-3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3.9108796296296296E-3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4.2129629629629626E-3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3.81712962962963E-3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>4.0972222222222226E-3</v>
+      </c>
+      <c r="H4" s="3">
+        <v>3.3055555555555551E-3</v>
+      </c>
+      <c r="I4" s="3">
+        <v>4.1756828703703704E-3</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3">
+        <v>4.1063657407407412E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4.449074074074074E-3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3.886574074074074E-3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4.108796296296297E-3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4.0624999999999993E-3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4.0879629629629625E-3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4.1145833333333329E-3</v>
+      </c>
+      <c r="I5" s="3">
+        <v>4.1019560185185187E-3</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3">
+        <v>4.1872569444444448E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
+        <v>3.9629629629629633E-3</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4.3055555555555555E-3</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3.7500000000000003E-3</v>
+      </c>
+      <c r="G6" s="3">
+        <v>4.1215277777777786E-3</v>
+      </c>
+      <c r="H6" s="3">
+        <v>4.1134259259259258E-3</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3">
+        <v>4.2330208333333334E-3</v>
+      </c>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3.8738425925925924E-3</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3">
+        <v>4.2392939814814819E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5.2708333333333331E-3</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3">
+        <v>4.664722222222222E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1">
+        <v>42145</v>
+      </c>
+      <c r="D1" s="1">
+        <v>42091</v>
+      </c>
+      <c r="E1" s="1">
+        <v>42098</v>
+      </c>
+      <c r="F1" s="1">
+        <v>42105</v>
+      </c>
+      <c r="G1" s="1">
+        <v>42112</v>
+      </c>
+      <c r="H1" s="1">
+        <v>42119</v>
+      </c>
+      <c r="I1" s="1">
+        <v>42126</v>
+      </c>
+      <c r="J1" s="1">
+        <v>42141</v>
+      </c>
+      <c r="K1" s="1">
+        <v>42155</v>
+      </c>
+      <c r="L1" s="1">
+        <v>42155</v>
+      </c>
+      <c r="M1" s="1">
+        <v>42155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4.0127314814814817E-3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4.2092592592592589E-3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4.0879629629629625E-3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4.2881944444444443E-3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3.9972222222222223E-3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4.3048611111111109E-3</v>
+      </c>
+      <c r="I3" s="3">
+        <v>3.9027777777777776E-3</v>
+      </c>
+      <c r="J3" s="3">
+        <v>3.9699305555555555E-3</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3">
+        <v>3.9659374999999998E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4.1053240740740746E-3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4.2619212962962958E-3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4.2557870370370362E-3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.4247685185185189E-3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>4.1177083333333335E-3</v>
+      </c>
+      <c r="H4" s="3">
+        <v>4.2695601851851853E-3</v>
+      </c>
+      <c r="I4" s="3">
+        <v>4.0659722222222226E-3</v>
+      </c>
+      <c r="J4" s="3">
+        <v>4.141898148148148E-3</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3">
+        <v>4.0709374999999999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4.1724537037037043E-3</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
+        <v>4.3530092592592596E-3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4.4513888888888893E-3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4.0937499999999993E-3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4.4699074074074077E-3</v>
+      </c>
+      <c r="I5" s="3">
+        <v>4.2314814814814819E-3</v>
+      </c>
+      <c r="J5" s="3">
+        <v>4.2657638888888884E-3</v>
+      </c>
+      <c r="K5" s="3">
+        <v>4.1733333333333336E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4.108796296296297E-3</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="H8" s="3">
+        <v>4.3546296296296302E-3</v>
+      </c>
+      <c r="I8" s="3">
+        <v>4.0821759259259257E-3</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4.1405555555555553E-3</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="M8" s="3">
+        <v>4.0165972222222226E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4.8101851851851856E-3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5.0763888888888881E-3</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="J9" s="3">
+        <v>4.7032986111111112E-3</v>
+      </c>
+      <c r="K9" s="3">
+        <v>4.6000347222222224E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1">
+        <v>42145</v>
+      </c>
+      <c r="D1" s="1">
+        <v>42091</v>
+      </c>
+      <c r="E1" s="1">
+        <v>42098</v>
+      </c>
+      <c r="F1" s="1">
+        <v>42105</v>
+      </c>
+      <c r="G1" s="1">
+        <v>42112</v>
+      </c>
+      <c r="H1" s="1">
+        <v>42119</v>
+      </c>
+      <c r="I1" s="1">
+        <v>42126</v>
+      </c>
+      <c r="J1" s="1">
+        <v>42141</v>
+      </c>
+      <c r="K1" s="1">
+        <v>42155</v>
+      </c>
+      <c r="L1" s="1">
+        <v>42155</v>
+      </c>
+      <c r="M1" s="1">
+        <v>42155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4.0127314814814817E-3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4.2092592592592589E-3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4.0879629629629625E-3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4.2881944444444443E-3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3.9972222222222223E-3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4.3048611111111109E-3</v>
+      </c>
+      <c r="I3" s="3">
+        <v>3.9027777777777776E-3</v>
+      </c>
+      <c r="J3" s="3">
+        <v>3.9699305555555555E-3</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3">
+        <v>3.9659374999999998E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4.1053240740740746E-3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4.2619212962962958E-3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4.2557870370370362E-3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.4247685185185189E-3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>4.1177083333333335E-3</v>
+      </c>
+      <c r="H4" s="3">
+        <v>4.2695601851851853E-3</v>
+      </c>
+      <c r="I4" s="3">
+        <v>4.0659722222222226E-3</v>
+      </c>
+      <c r="J4" s="3">
+        <v>4.141898148148148E-3</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3">
+        <v>4.0709374999999999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4.1724537037037043E-3</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
+        <v>4.3530092592592596E-3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4.4513888888888893E-3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4.0937499999999993E-3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4.4699074074074077E-3</v>
+      </c>
+      <c r="I5" s="3">
+        <v>4.2314814814814819E-3</v>
+      </c>
+      <c r="J5" s="3">
+        <v>4.2657638888888884E-3</v>
+      </c>
+      <c r="K5" s="3">
+        <v>4.1733333333333336E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4.108796296296297E-3</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="H8" s="3">
+        <v>4.3546296296296302E-3</v>
+      </c>
+      <c r="I8" s="3">
+        <v>4.0821759259259257E-3</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4.1405555555555553E-3</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="M8" s="3">
+        <v>4.0165972222222226E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4.8101851851851856E-3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5.0763888888888881E-3</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="J9" s="3">
+        <v>4.7032986111111112E-3</v>
+      </c>
+      <c r="K9" s="3">
+        <v>4.6000347222222224E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>42126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>42141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>42141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>42141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>42155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>42155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>42155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>42155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>42141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>42092</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>42093</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>42094</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>42095</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
+        <v>42096</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1">
+        <v>42097</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1">
+        <v>42098</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1">
+        <v>42099</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1">
+        <v>42100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1">
+        <v>42101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1">
+        <v>42102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1">
+        <v>42103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1">
+        <v>42104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1">
+        <v>42145</v>
+      </c>
+      <c r="D1" s="1">
+        <v>42091</v>
+      </c>
+      <c r="E1" s="1">
+        <v>42098</v>
+      </c>
+      <c r="F1" s="1">
+        <v>42105</v>
+      </c>
+      <c r="G1" s="1">
+        <v>42112</v>
+      </c>
+      <c r="H1" s="1">
+        <v>42119</v>
+      </c>
+      <c r="I1" s="1">
+        <v>42126</v>
+      </c>
+      <c r="J1" s="1">
+        <v>42141</v>
+      </c>
+      <c r="K1" s="1">
+        <v>42155</v>
+      </c>
+      <c r="L1" s="1">
+        <v>42155</v>
+      </c>
+      <c r="M1" s="1">
+        <v>42155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4.0127314814814817E-3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4.2092592592592589E-3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4.0879629629629625E-3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4.2881944444444443E-3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3.9972222222222223E-3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4.3048611111111109E-3</v>
+      </c>
+      <c r="I3" s="3">
+        <v>3.9027777777777776E-3</v>
+      </c>
+      <c r="J3" s="3">
+        <v>3.9699305555555555E-3</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3">
+        <v>3.9659374999999998E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4.1053240740740746E-3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4.2619212962962958E-3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4.2557870370370362E-3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.4247685185185189E-3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>4.1177083333333335E-3</v>
+      </c>
+      <c r="H4" s="3">
+        <v>4.2695601851851853E-3</v>
+      </c>
+      <c r="I4" s="3">
+        <v>4.0659722222222226E-3</v>
+      </c>
+      <c r="J4" s="3">
+        <v>4.141898148148148E-3</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3">
+        <v>4.0709374999999999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4.1724537037037043E-3</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
+        <v>4.3530092592592596E-3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4.4513888888888893E-3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4.0937499999999993E-3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4.4699074074074077E-3</v>
+      </c>
+      <c r="I5" s="3">
+        <v>4.2314814814814819E-3</v>
+      </c>
+      <c r="J5" s="3">
+        <v>4.2657638888888884E-3</v>
+      </c>
+      <c r="K5" s="3">
+        <v>4.1733333333333336E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4.108796296296297E-3</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="H8" s="3">
+        <v>4.3546296296296302E-3</v>
+      </c>
+      <c r="I8" s="3">
+        <v>4.0821759259259257E-3</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4.1405555555555553E-3</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="M8" s="3">
+        <v>4.0165972222222226E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4.8101851851851856E-3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5.0763888888888881E-3</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="J9" s="3">
+        <v>4.7032986111111112E-3</v>
+      </c>
+      <c r="K9" s="3">
+        <v>4.6000347222222224E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1">
+        <v>42145</v>
+      </c>
+      <c r="D1" s="1">
+        <v>42091</v>
+      </c>
+      <c r="E1" s="1">
+        <v>42098</v>
+      </c>
+      <c r="F1" s="1">
+        <v>42105</v>
+      </c>
+      <c r="G1" s="1">
+        <v>42112</v>
+      </c>
+      <c r="H1" s="1">
+        <v>42119</v>
+      </c>
+      <c r="I1" s="1">
+        <v>42126</v>
+      </c>
+      <c r="J1" s="1">
+        <v>42141</v>
+      </c>
+      <c r="K1" s="1">
+        <v>42155</v>
+      </c>
+      <c r="L1" s="1">
+        <v>42155</v>
+      </c>
+      <c r="M1" s="1">
+        <v>42155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4.0127314814814817E-3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4.2092592592592589E-3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4.0879629629629625E-3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4.2881944444444443E-3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3.9972222222222223E-3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4.3048611111111109E-3</v>
+      </c>
+      <c r="I3" s="3">
+        <v>3.9027777777777776E-3</v>
+      </c>
+      <c r="J3" s="3">
+        <v>3.9699305555555555E-3</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3">
+        <v>3.9659374999999998E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4.1053240740740746E-3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4.2619212962962958E-3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4.2557870370370362E-3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.4247685185185189E-3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>4.1177083333333335E-3</v>
+      </c>
+      <c r="H4" s="3">
+        <v>4.2695601851851853E-3</v>
+      </c>
+      <c r="I4" s="3">
+        <v>4.0659722222222226E-3</v>
+      </c>
+      <c r="J4" s="3">
+        <v>4.141898148148148E-3</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3">
+        <v>4.0709374999999999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4.1724537037037043E-3</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
+        <v>4.3530092592592596E-3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4.4513888888888893E-3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4.0937499999999993E-3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4.4699074074074077E-3</v>
+      </c>
+      <c r="I5" s="3">
+        <v>4.2314814814814819E-3</v>
+      </c>
+      <c r="J5" s="3">
+        <v>4.2657638888888884E-3</v>
+      </c>
+      <c r="K5" s="3">
+        <v>4.1733333333333336E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4.108796296296297E-3</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="H8" s="3">
+        <v>4.3546296296296302E-3</v>
+      </c>
+      <c r="I8" s="3">
+        <v>4.0821759259259257E-3</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4.1405555555555553E-3</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="M8" s="3">
+        <v>4.0165972222222226E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4.8101851851851856E-3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5.0763888888888881E-3</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="J9" s="3">
+        <v>4.7032986111111112E-3</v>
+      </c>
+      <c r="K9" s="3">
+        <v>4.6000347222222224E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1">
+        <v>42145</v>
+      </c>
+      <c r="D1" s="1">
+        <v>42091</v>
+      </c>
+      <c r="E1" s="1">
+        <v>42098</v>
+      </c>
+      <c r="F1" s="1">
+        <v>42105</v>
+      </c>
+      <c r="G1" s="1">
+        <v>42112</v>
+      </c>
+      <c r="H1" s="1">
+        <v>42119</v>
+      </c>
+      <c r="I1" s="1">
+        <v>42126</v>
+      </c>
+      <c r="J1" s="1">
+        <v>42141</v>
+      </c>
+      <c r="K1" s="1">
+        <v>42155</v>
+      </c>
+      <c r="L1" s="1">
+        <v>42155</v>
+      </c>
+      <c r="M1" s="1">
+        <v>42155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4.0127314814814817E-3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4.2092592592592589E-3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4.0879629629629625E-3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4.2881944444444443E-3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3.9972222222222223E-3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4.3048611111111109E-3</v>
+      </c>
+      <c r="I3" s="3">
+        <v>3.9027777777777776E-3</v>
+      </c>
+      <c r="J3" s="3">
+        <v>3.9699305555555555E-3</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3">
+        <v>3.9659374999999998E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4.1053240740740746E-3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4.2619212962962958E-3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4.2557870370370362E-3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.4247685185185189E-3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>4.1177083333333335E-3</v>
+      </c>
+      <c r="H4" s="3">
+        <v>4.2695601851851853E-3</v>
+      </c>
+      <c r="I4" s="3">
+        <v>4.0659722222222226E-3</v>
+      </c>
+      <c r="J4" s="3">
+        <v>4.141898148148148E-3</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3">
+        <v>4.0709374999999999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4.1724537037037043E-3</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
+        <v>4.3530092592592596E-3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4.4513888888888893E-3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4.0937499999999993E-3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4.4699074074074077E-3</v>
+      </c>
+      <c r="I5" s="3">
+        <v>4.2314814814814819E-3</v>
+      </c>
+      <c r="J5" s="3">
+        <v>4.2657638888888884E-3</v>
+      </c>
+      <c r="K5" s="3">
+        <v>4.1733333333333336E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4.108796296296297E-3</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="H8" s="3">
+        <v>4.3546296296296302E-3</v>
+      </c>
+      <c r="I8" s="3">
+        <v>4.0821759259259257E-3</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4.1405555555555553E-3</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="M8" s="3">
+        <v>4.0165972222222226E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4.8101851851851856E-3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5.0763888888888881E-3</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="J9" s="3">
+        <v>4.7032986111111112E-3</v>
+      </c>
+      <c r="K9" s="3">
+        <v>4.6000347222222224E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1">
+        <v>42145</v>
+      </c>
+      <c r="D1" s="1">
+        <v>42091</v>
+      </c>
+      <c r="E1" s="1">
+        <v>42098</v>
+      </c>
+      <c r="F1" s="1">
+        <v>42105</v>
+      </c>
+      <c r="G1" s="1">
+        <v>42112</v>
+      </c>
+      <c r="H1" s="1">
+        <v>42119</v>
+      </c>
+      <c r="I1" s="1">
+        <v>42126</v>
+      </c>
+      <c r="J1" s="1">
+        <v>42141</v>
+      </c>
+      <c r="K1" s="1">
+        <v>42155</v>
+      </c>
+      <c r="L1" s="1">
+        <v>42155</v>
+      </c>
+      <c r="M1" s="1">
+        <v>42155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4.0127314814814817E-3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4.2092592592592589E-3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4.0879629629629625E-3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4.2881944444444443E-3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3.9972222222222223E-3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4.3048611111111109E-3</v>
+      </c>
+      <c r="I3" s="3">
+        <v>3.9027777777777776E-3</v>
+      </c>
+      <c r="J3" s="3">
+        <v>3.9699305555555555E-3</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3">
+        <v>3.9659374999999998E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4.1053240740740746E-3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4.2619212962962958E-3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4.2557870370370362E-3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.4247685185185189E-3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>4.1177083333333335E-3</v>
+      </c>
+      <c r="H4" s="3">
+        <v>4.2695601851851853E-3</v>
+      </c>
+      <c r="I4" s="3">
+        <v>4.0659722222222226E-3</v>
+      </c>
+      <c r="J4" s="3">
+        <v>4.141898148148148E-3</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3">
+        <v>4.0709374999999999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4.1724537037037043E-3</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
+        <v>4.3530092592592596E-3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4.4513888888888893E-3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4.0937499999999993E-3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4.4699074074074077E-3</v>
+      </c>
+      <c r="I5" s="3">
+        <v>4.2314814814814819E-3</v>
+      </c>
+      <c r="J5" s="3">
+        <v>4.2657638888888884E-3</v>
+      </c>
+      <c r="K5" s="3">
+        <v>4.1733333333333336E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4.108796296296297E-3</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="H8" s="3">
+        <v>4.3546296296296302E-3</v>
+      </c>
+      <c r="I8" s="3">
+        <v>4.0821759259259257E-3</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4.1405555555555553E-3</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="M8" s="3">
+        <v>4.0165972222222226E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4.8101851851851856E-3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5.0763888888888881E-3</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="J9" s="3">
+        <v>4.7032986111111112E-3</v>
+      </c>
+      <c r="K9" s="3">
+        <v>4.6000347222222224E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1">
+        <v>42145</v>
+      </c>
+      <c r="D1" s="1">
+        <v>42091</v>
+      </c>
+      <c r="E1" s="1">
+        <v>42098</v>
+      </c>
+      <c r="F1" s="1">
+        <v>42105</v>
+      </c>
+      <c r="G1" s="1">
+        <v>42112</v>
+      </c>
+      <c r="H1" s="1">
+        <v>42119</v>
+      </c>
+      <c r="I1" s="1">
+        <v>42126</v>
+      </c>
+      <c r="J1" s="1">
+        <v>42141</v>
+      </c>
+      <c r="K1" s="1">
+        <v>42155</v>
+      </c>
+      <c r="L1" s="1">
+        <v>42155</v>
+      </c>
+      <c r="M1" s="1">
+        <v>42155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4.0127314814814817E-3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4.2092592592592589E-3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4.0879629629629625E-3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4.2881944444444443E-3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3.9972222222222223E-3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4.3048611111111109E-3</v>
+      </c>
+      <c r="I3" s="3">
+        <v>3.9027777777777776E-3</v>
+      </c>
+      <c r="J3" s="3">
+        <v>3.9699305555555555E-3</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3">
+        <v>3.9659374999999998E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4.1053240740740746E-3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4.2619212962962958E-3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4.2557870370370362E-3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.4247685185185189E-3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>4.1177083333333335E-3</v>
+      </c>
+      <c r="H4" s="3">
+        <v>4.2695601851851853E-3</v>
+      </c>
+      <c r="I4" s="3">
+        <v>4.0659722222222226E-3</v>
+      </c>
+      <c r="J4" s="3">
+        <v>4.141898148148148E-3</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3">
+        <v>4.0709374999999999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4.1724537037037043E-3</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
+        <v>4.3530092592592596E-3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4.4513888888888893E-3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4.0937499999999993E-3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4.4699074074074077E-3</v>
+      </c>
+      <c r="I5" s="3">
+        <v>4.2314814814814819E-3</v>
+      </c>
+      <c r="J5" s="3">
+        <v>4.2657638888888884E-3</v>
+      </c>
+      <c r="K5" s="3">
+        <v>4.1733333333333336E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4.108796296296297E-3</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="H8" s="3">
+        <v>4.3546296296296302E-3</v>
+      </c>
+      <c r="I8" s="3">
+        <v>4.0821759259259257E-3</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4.1405555555555553E-3</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="M8" s="3">
+        <v>4.0165972222222226E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4.8101851851851856E-3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5.0763888888888881E-3</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="J9" s="3">
+        <v>4.7032986111111112E-3</v>
+      </c>
+      <c r="K9" s="3">
+        <v>4.6000347222222224E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1">
+        <v>42145</v>
+      </c>
+      <c r="D1" s="1">
+        <v>42091</v>
+      </c>
+      <c r="E1" s="1">
+        <v>42098</v>
+      </c>
+      <c r="F1" s="1">
+        <v>42105</v>
+      </c>
+      <c r="G1" s="1">
+        <v>42112</v>
+      </c>
+      <c r="H1" s="1">
+        <v>42119</v>
+      </c>
+      <c r="I1" s="1">
+        <v>42126</v>
+      </c>
+      <c r="J1" s="1">
+        <v>42141</v>
+      </c>
+      <c r="K1" s="1">
+        <v>42155</v>
+      </c>
+      <c r="L1" s="1">
+        <v>42155</v>
+      </c>
+      <c r="M1" s="1">
+        <v>42155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4.0127314814814817E-3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4.2092592592592589E-3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4.0879629629629625E-3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4.2881944444444443E-3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3.9972222222222223E-3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4.3048611111111109E-3</v>
+      </c>
+      <c r="I3" s="3">
+        <v>3.9027777777777776E-3</v>
+      </c>
+      <c r="J3" s="3">
+        <v>3.9699305555555555E-3</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3">
+        <v>3.9659374999999998E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4.1053240740740746E-3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4.2619212962962958E-3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4.2557870370370362E-3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.4247685185185189E-3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>4.1177083333333335E-3</v>
+      </c>
+      <c r="H4" s="3">
+        <v>4.2695601851851853E-3</v>
+      </c>
+      <c r="I4" s="3">
+        <v>4.0659722222222226E-3</v>
+      </c>
+      <c r="J4" s="3">
+        <v>4.141898148148148E-3</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3">
+        <v>4.0709374999999999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4.1724537037037043E-3</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
+        <v>4.3530092592592596E-3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4.4513888888888893E-3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4.0937499999999993E-3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4.4699074074074077E-3</v>
+      </c>
+      <c r="I5" s="3">
+        <v>4.2314814814814819E-3</v>
+      </c>
+      <c r="J5" s="3">
+        <v>4.2657638888888884E-3</v>
+      </c>
+      <c r="K5" s="3">
+        <v>4.1733333333333336E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4.108796296296297E-3</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="H8" s="3">
+        <v>4.3546296296296302E-3</v>
+      </c>
+      <c r="I8" s="3">
+        <v>4.0821759259259257E-3</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4.1405555555555553E-3</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="M8" s="3">
+        <v>4.0165972222222226E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4.8101851851851856E-3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5.0763888888888881E-3</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="J9" s="3">
+        <v>4.7032986111111112E-3</v>
+      </c>
+      <c r="K9" s="3">
+        <v>4.6000347222222224E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1">
+        <v>42145</v>
+      </c>
+      <c r="D1" s="1">
+        <v>42091</v>
+      </c>
+      <c r="E1" s="1">
+        <v>42098</v>
+      </c>
+      <c r="F1" s="1">
+        <v>42105</v>
+      </c>
+      <c r="G1" s="1">
+        <v>42112</v>
+      </c>
+      <c r="H1" s="1">
+        <v>42119</v>
+      </c>
+      <c r="I1" s="1">
+        <v>42126</v>
+      </c>
+      <c r="J1" s="1">
+        <v>42141</v>
+      </c>
+      <c r="K1" s="1">
+        <v>42155</v>
+      </c>
+      <c r="L1" s="1">
+        <v>42155</v>
+      </c>
+      <c r="M1" s="1">
+        <v>42155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4.0127314814814817E-3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4.2092592592592589E-3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4.0879629629629625E-3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4.2881944444444443E-3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3.9972222222222223E-3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4.3048611111111109E-3</v>
+      </c>
+      <c r="I3" s="3">
+        <v>3.9027777777777776E-3</v>
+      </c>
+      <c r="J3" s="3">
+        <v>3.9699305555555555E-3</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3">
+        <v>3.9659374999999998E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4.1053240740740746E-3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4.2619212962962958E-3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4.2557870370370362E-3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.4247685185185189E-3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>4.1177083333333335E-3</v>
+      </c>
+      <c r="H4" s="3">
+        <v>4.2695601851851853E-3</v>
+      </c>
+      <c r="I4" s="3">
+        <v>4.0659722222222226E-3</v>
+      </c>
+      <c r="J4" s="3">
+        <v>4.141898148148148E-3</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3">
+        <v>4.0709374999999999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4.1724537037037043E-3</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
+        <v>4.3530092592592596E-3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4.4513888888888893E-3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4.0937499999999993E-3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4.4699074074074077E-3</v>
+      </c>
+      <c r="I5" s="3">
+        <v>4.2314814814814819E-3</v>
+      </c>
+      <c r="J5" s="3">
+        <v>4.2657638888888884E-3</v>
+      </c>
+      <c r="K5" s="3">
+        <v>4.1733333333333336E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4.108796296296297E-3</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="H8" s="3">
+        <v>4.3546296296296302E-3</v>
+      </c>
+      <c r="I8" s="3">
+        <v>4.0821759259259257E-3</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4.1405555555555553E-3</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="M8" s="3">
+        <v>4.0165972222222226E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4.8101851851851856E-3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5.0763888888888881E-3</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="J9" s="3">
+        <v>4.7032986111111112E-3</v>
+      </c>
+      <c r="K9" s="3">
+        <v>4.6000347222222224E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1">
+        <v>42098</v>
+      </c>
+      <c r="D1" s="1">
+        <v>42105</v>
+      </c>
+      <c r="E1" s="1">
+        <v>42106</v>
+      </c>
+      <c r="F1" s="1">
+        <v>42119</v>
+      </c>
+      <c r="G1" s="1">
+        <v>42126</v>
+      </c>
+      <c r="H1" s="1">
+        <v>42141</v>
+      </c>
+      <c r="I1" s="1">
+        <v>42155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3.84837962962963E-3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3.9236111111111112E-3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3.9745370370370377E-3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3.9220601851851855E-3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>4.0023148148148153E-3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>3.9891203703703703E-3</v>
+      </c>
+      <c r="I3" s="3">
+        <v>3.7964699074074077E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3.9432870370370377E-3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3.9861111111111113E-3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4.0335648148148153E-3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.0424768518518518E-3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>4.2881944444444443E-3</v>
+      </c>
+      <c r="H4" s="3">
+        <v>4.098032407407407E-3</v>
+      </c>
+      <c r="I4" s="3">
+        <v>3.8616087962962966E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
+        <v>4.2534722222222219E-3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3.9548611111111113E-3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4.1476851851851857E-3</v>
+      </c>
+      <c r="I5" s="3">
+        <v>3.9396874999999996E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3.998842592592592E-3</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4.0243055555555553E-3</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
+        <v>3.9543518518518521E-3</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3.8888888888888883E-3</v>
+      </c>
+      <c r="H8" s="3">
+        <v>4.0983796296296298E-3</v>
+      </c>
+      <c r="I8" s="3">
+        <v>3.9278472222222223E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4.3757986111111107E-3</v>
+      </c>
+      <c r="G9" s="3">
+        <v>4.4305555555555556E-3</v>
+      </c>
+      <c r="H9" s="3">
+        <v>4.5458333333333331E-3</v>
+      </c>
+      <c r="I9" s="3">
+        <v>4.3555671296296294E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1">
+        <v>42090</v>
+      </c>
+      <c r="D1" s="1">
+        <v>42098</v>
+      </c>
+      <c r="E1" s="1">
+        <v>42105</v>
+      </c>
+      <c r="F1" s="1">
+        <v>42112</v>
+      </c>
+      <c r="G1" s="1">
+        <v>42119</v>
+      </c>
+      <c r="H1" s="1">
+        <v>42126</v>
+      </c>
+      <c r="I1" s="1">
+        <v>42141</v>
+      </c>
+      <c r="J1" s="1">
+        <v>42155</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3.9628472222222226E-3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3.84837962962963E-3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4.5682870370370365E-3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3.8217592592592591E-3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3.6863425925925931E-3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>3.9189814814814816E-3</v>
+      </c>
+      <c r="I3" s="3">
+        <v>3.9068171296296299E-3</v>
+      </c>
+      <c r="J3" s="3">
+        <v>3.8911805555555557E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4.0090277777777772E-3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4.0231481481481481E-3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4.5648148148148149E-3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>3.7847222222222223E-3</v>
+      </c>
+      <c r="H4" s="3">
+        <v>4.0624999999999993E-3</v>
+      </c>
+      <c r="I4" s="3">
+        <v>4.029733796296296E-3</v>
+      </c>
+      <c r="J4" s="3">
+        <v>4.0397800925925922E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4.4299768518518516E-3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4.681712962962963E-3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4.3078703703703708E-3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3.914351851851852E-3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4.1655092592592586E-3</v>
+      </c>
+      <c r="I5" s="3">
+        <v>4.0380208333333336E-3</v>
+      </c>
+      <c r="J5" s="3">
+        <v>4.0443518518518519E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="3">
+        <v>4.5524305555555552E-3</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
+        <v>5.1631944444444442E-3</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3.8090277777777779E-3</v>
+      </c>
+      <c r="H6" s="3">
+        <v>4.2129629629629626E-3</v>
+      </c>
+      <c r="I6" s="3">
+        <v>4.1109722222222225E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4.0775462962962961E-3</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4.5034722222222221E-3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="F9" s="3">
+        <v>4.9247685185185184E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1">
+        <v>42092</v>
+      </c>
+      <c r="D1" s="1">
+        <v>42097</v>
+      </c>
+      <c r="E1" s="1">
+        <v>42105</v>
+      </c>
+      <c r="F1" s="1">
+        <v>42105</v>
+      </c>
+      <c r="G1" s="1">
+        <v>42112</v>
+      </c>
+      <c r="H1" s="1">
+        <v>42113</v>
+      </c>
+      <c r="I1" s="1">
+        <v>42141</v>
+      </c>
+      <c r="J1" s="1">
+        <v>42155</v>
+      </c>
+      <c r="K1" s="1">
+        <v>42155</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4.2177083333333329E-3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4.2761574074074073E-3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4.1585648148148146E-3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4.2314814814814819E-3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3.9884259259259256E-3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4.0659722222222226E-3</v>
+      </c>
+      <c r="I3" s="3">
+        <v>4.0277777777777777E-3</v>
+      </c>
+      <c r="J3" s="3">
+        <v>4.120532407407407E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4.3965277777777778E-3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4.4422453703703698E-3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4.2523148148148147E-3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.4629629629629628E-3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>4.1597222222222226E-3</v>
+      </c>
+      <c r="H4" s="3">
+        <v>4.2638888888888891E-3</v>
+      </c>
+      <c r="I4" s="3">
+        <v>4.1944444444444442E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4.4714120370370368E-3</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
+        <v>4.4606481481481476E-3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4.6759259259259263E-3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4.2638888888888891E-3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4.363425925925926E-3</v>
+      </c>
+      <c r="I5" s="3">
+        <v>4.3460648148148156E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3">
+        <v>4.3965046296296295E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12" customWidth="1"/>
+    <col min="9" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1">
+        <v>42105</v>
+      </c>
+      <c r="D1" s="1">
+        <v>42112</v>
+      </c>
+      <c r="E1" s="1">
+        <v>42112</v>
+      </c>
+      <c r="F1" s="1">
+        <v>42112</v>
+      </c>
+      <c r="G1" s="1">
+        <v>42120</v>
+      </c>
+      <c r="H1" s="1">
+        <v>42126</v>
+      </c>
+      <c r="I1" s="1">
+        <v>42141</v>
+      </c>
+      <c r="J1" s="1">
+        <v>42155</v>
+      </c>
+      <c r="K1" s="1">
+        <v>42155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4.2210648148148146E-3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4.0104166666666665E-3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3.9687500000000001E-3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>4.2291666666666667E-3</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3">
+        <v>4.2734953703703702E-3</v>
+      </c>
+      <c r="J3" s="3">
+        <v>4.0263888888888892E-3</v>
+      </c>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4.3506944444444444E-3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4.108796296296297E-3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4.1249999999999993E-3</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3">
+        <v>4.378472222222222E-3</v>
+      </c>
+      <c r="H4" s="3">
+        <v>4.2881944444444443E-3</v>
+      </c>
+      <c r="I4" s="3">
+        <v>4.3560185185185186E-3</v>
+      </c>
+      <c r="K4" s="3">
+        <v>4.1644212962962963E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
+        <v>4.1886574074074074E-3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4.2430555555555563E-3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4.2893518518518524E-3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4.332175925925926E-3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4.1481481481481482E-3</v>
+      </c>
+      <c r="I5" s="3">
+        <v>4.4979166666666666E-3</v>
+      </c>
+      <c r="K5" s="3">
+        <v>4.1319560185185183E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4.409722222222222E-3</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3">
+        <v>4.5335648148148149E-3</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>4.4803240740740749E-3</v>
+      </c>
+      <c r="G9" s="3">
+        <v>4.9756944444444449E-3</v>
+      </c>
+      <c r="H9" s="3">
+        <v>4.7789351851851855E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1">
+        <v>42084</v>
+      </c>
+      <c r="D1" s="1">
+        <v>42098</v>
+      </c>
+      <c r="E1" s="1">
+        <v>42105</v>
+      </c>
+      <c r="F1" s="1">
+        <v>42112</v>
+      </c>
+      <c r="G1" s="1">
+        <v>42119</v>
+      </c>
+      <c r="H1" s="1">
+        <v>42126</v>
+      </c>
+      <c r="I1" s="1">
+        <v>42141</v>
+      </c>
+      <c r="J1" s="1">
+        <v>42141</v>
+      </c>
+      <c r="K1" s="1">
+        <v>42155</v>
+      </c>
+      <c r="L1" s="1">
+        <v>42155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3.9745370370370377E-3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4.3344907407407403E-3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4.3541666666666668E-3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4.030671296296297E-3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3.7453703703703707E-3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4.2187500000000003E-3</v>
+      </c>
+      <c r="I3" s="3">
+        <v>3.955983796296296E-3</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3">
+        <v>4.0573611111111114E-3</v>
+      </c>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4.1435185185185186E-3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4.5925925925925926E-3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4.4722222222222221E-3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.179166666666667E-3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>4.4328703703703709E-3</v>
+      </c>
+      <c r="H4" s="3">
+        <v>4.4467592592592588E-3</v>
+      </c>
+      <c r="I4" s="3">
+        <v>4.1946180555555556E-3</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="L4" s="3">
+        <v>4.0636458333333332E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4.6145833333333325E-3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4.4513888888888893E-3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4.456597222222222E-3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4.8032407407407407E-3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4.1493055555555554E-3</v>
+      </c>
+      <c r="J5" s="3">
+        <v>4.3019212962962959E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
+        <v>4.9861111111111104E-3</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4.5743055555555554E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4.7418981481481479E-3</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5.596064814814815E-3</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1">
+        <v>42092</v>
+      </c>
+      <c r="D1" s="1">
+        <v>42098</v>
+      </c>
+      <c r="E1" s="1">
+        <v>42112</v>
+      </c>
+      <c r="F1" s="1">
+        <v>42119</v>
+      </c>
+      <c r="G1" s="1">
+        <v>42120</v>
+      </c>
+      <c r="H1" s="1">
+        <v>42126</v>
+      </c>
+      <c r="I1" s="1">
+        <v>42141</v>
+      </c>
+      <c r="J1" s="1">
+        <v>42155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4.0870370370370375E-3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3.8761574074074076E-3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3.8668981481481484E-3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3.921296296296296E-3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>4.0347222222222225E-3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>3.8333333333333331E-3</v>
+      </c>
+      <c r="I3" s="3">
+        <v>4.0381944444444441E-3</v>
+      </c>
+      <c r="J3" s="3">
+        <v>3.8286805555555557E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4.1442129629629624E-3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3.983796296296296E-3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3.9502314814814816E-3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.1099537037037033E-3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>4.1134259259259258E-3</v>
+      </c>
+      <c r="H4" s="3">
+        <v>4.0057870370370377E-3</v>
+      </c>
+      <c r="I4" s="3">
+        <v>4.1643518518518514E-3</v>
+      </c>
+      <c r="J4" s="3">
+        <v>3.9622453703703703E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="I5" s="3">
+        <v>4.168981481481481E-3</v>
+      </c>
+      <c r="J5" s="3">
+        <v>3.9867013888888895E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
+        <v>3.9791666666666664E-3</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3.9467592592592592E-3</v>
+      </c>
+      <c r="G8" s="3">
+        <v>4.1493055555555554E-3</v>
+      </c>
+      <c r="H8" s="3">
+        <v>4.0173611111111113E-3</v>
+      </c>
+      <c r="I8" s="3">
+        <v>4.1319444444444442E-3</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3.9824652777777783E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>4.3993055555555556E-3</v>
+      </c>
+      <c r="G9" s="3">
+        <v>4.6388888888888886E-3</v>
+      </c>
+      <c r="I9" s="3">
+        <v>4.6678240740740742E-3</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3.6992129629629632E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1">
+        <v>42091</v>
+      </c>
+      <c r="D1" s="1">
+        <v>42098</v>
+      </c>
+      <c r="E1" s="1">
+        <v>42105</v>
+      </c>
+      <c r="F1" s="1">
+        <v>42112</v>
+      </c>
+      <c r="G1" s="1">
+        <v>42029</v>
+      </c>
+      <c r="H1" s="1">
+        <v>42126</v>
+      </c>
+      <c r="I1" s="1">
+        <v>42141</v>
+      </c>
+      <c r="J1" s="1">
+        <v>42155</v>
+      </c>
+      <c r="K1" s="1">
+        <v>42155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4.3449074074074076E-3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4.3217592592592596E-3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4.2106481481481483E-3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3.9803240740740745E-3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>4.2893518518518524E-3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>3.9108796296296296E-3</v>
+      </c>
+      <c r="I3" s="3">
+        <v>3.9014930555555556E-3</v>
+      </c>
+      <c r="J3" s="3">
+        <v>3.8303472222222224E-3</v>
+      </c>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4.6122685185185181E-3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4.3680555555555556E-3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4.2615740740740739E-3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3.9652777777777776E-3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>4.4004629629629628E-3</v>
+      </c>
+      <c r="H4" s="3">
+        <v>4.0138888888888889E-3</v>
+      </c>
+      <c r="I4" s="3">
+        <v>3.9809490740740743E-3</v>
+      </c>
+      <c r="J4" s="3">
+        <v>3.8734606481481484E-3</v>
+      </c>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4.9108796296296296E-3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3.922453703703704E-3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4.3425925925925923E-3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4.0439814814814809E-3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4.394675925925926E-3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4.0972222222222226E-3</v>
+      </c>
+      <c r="I5" s="3">
+        <v>4.0348148148148149E-3</v>
+      </c>
+      <c r="J5" s="3">
+        <v>4.0648148148148154E-3</v>
+      </c>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5.1006944444444442E-3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>4.2349537037037034E-3</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4.9143518518518512E-3</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4.1967592592592586E-3</v>
+      </c>
+      <c r="G6" s="3">
+        <v>4.7731481481481479E-3</v>
+      </c>
+      <c r="H6" s="3">
+        <v>4.2129629629629626E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="K8" s="3">
+        <v>4.2818750000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testseason.xlsx
+++ b/testseason.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9450" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9450" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Team Info" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="219">
   <si>
     <t>Team Simulation</t>
   </si>
@@ -222,9 +222,6 @@
     <t>v Brown</t>
   </si>
   <si>
-    <t>v Cal</t>
-  </si>
-  <si>
     <t>Windermere</t>
   </si>
   <si>
@@ -312,12 +309,6 @@
     <t>IRA-4</t>
   </si>
   <si>
-    <t>v  Cal</t>
-  </si>
-  <si>
-    <t>v Florida Tech</t>
-  </si>
-  <si>
     <t>Alumni Cup</t>
   </si>
   <si>
@@ -330,9 +321,6 @@
     <t>Doc Lusins</t>
   </si>
   <si>
-    <t>v Georgetown</t>
-  </si>
-  <si>
     <t>v Navy</t>
   </si>
   <si>
@@ -354,12 +342,6 @@
     <t>2V-5:49.49</t>
   </si>
   <si>
-    <t>v Penn</t>
-  </si>
-  <si>
-    <t>v Wisco</t>
-  </si>
-  <si>
     <t>v Holy Cross</t>
   </si>
   <si>
@@ -420,18 +402,9 @@
     <t>v Drexel</t>
   </si>
   <si>
-    <t>IRA-C</t>
-  </si>
-  <si>
     <t>v G Washington</t>
   </si>
   <si>
-    <t>EARC-C</t>
-  </si>
-  <si>
-    <t>IRA-D</t>
-  </si>
-  <si>
     <t>1V8-C</t>
   </si>
   <si>
@@ -721,6 +694,18 @@
   </si>
   <si>
     <t xml:space="preserve">Sean Kelley </t>
+  </si>
+  <si>
+    <t>v FIT</t>
+  </si>
+  <si>
+    <t>v OK City</t>
+  </si>
+  <si>
+    <t>v Pennsylvania</t>
+  </si>
+  <si>
+    <t>v California</t>
   </si>
 </sst>
 </file>
@@ -1268,7 +1253,7 @@
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B69"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1321,36 +1306,36 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
         <v>56</v>
       </c>
       <c r="E2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>78</v>
       </c>
-      <c r="I2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" t="s">
-        <v>79</v>
-      </c>
       <c r="K2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
@@ -1434,7 +1419,7 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1446,7 +1431,7 @@
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1467,13 +1452,13 @@
         <v>4.5034722222222221E-3</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F8" s="3">
         <v>4.2603009259259252E-3</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3">
@@ -1495,7 +1480,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1540,7 +1525,7 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
@@ -1585,7 +1570,7 @@
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
@@ -1630,7 +1615,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -1675,7 +1660,7 @@
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
@@ -1720,7 +1705,7 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
@@ -1765,7 +1750,7 @@
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
@@ -1798,14 +1783,14 @@
   <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B69"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
@@ -1848,33 +1833,33 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>217</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
         <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
@@ -1956,7 +1941,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1968,7 +1953,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -2011,7 +1996,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2056,7 +2041,7 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
@@ -2101,7 +2086,7 @@
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
@@ -2146,7 +2131,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -2191,7 +2176,7 @@
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
@@ -2236,7 +2221,7 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
@@ -2281,7 +2266,7 @@
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
@@ -2314,7 +2299,7 @@
   <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B69"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2362,27 +2347,27 @@
         <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
@@ -2454,7 +2439,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -2465,7 +2450,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -2495,7 +2480,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2540,7 +2525,7 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
@@ -2585,7 +2570,7 @@
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
@@ -2630,7 +2615,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -2675,7 +2660,7 @@
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
@@ -2720,7 +2705,7 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
@@ -2765,7 +2750,7 @@
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
@@ -2798,18 +2783,20 @@
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -2851,36 +2838,36 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>218</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H2" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="I2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
@@ -2966,7 +2953,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="3"/>
       <c r="E6" s="3"/>
@@ -2978,7 +2965,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C7" s="3"/>
       <c r="E7" s="3"/>
@@ -3010,7 +2997,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -3055,7 +3042,7 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
@@ -3100,7 +3087,7 @@
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
@@ -3145,7 +3132,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -3190,7 +3177,7 @@
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
@@ -3235,7 +3222,7 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
@@ -3280,7 +3267,7 @@
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
@@ -3373,39 +3360,39 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" t="s">
         <v>73</v>
       </c>
-      <c r="E2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" t="s">
         <v>78</v>
-      </c>
-      <c r="J2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
@@ -3492,7 +3479,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -3504,7 +3491,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -3523,7 +3510,7 @@
         <v>4.7141203703703703E-3</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F8" s="3">
         <v>4.2835648148148147E-3</v>
@@ -3556,7 +3543,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -3601,7 +3588,7 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
@@ -3646,7 +3633,7 @@
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
@@ -3691,7 +3678,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -3736,7 +3723,7 @@
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
@@ -3781,7 +3768,7 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
@@ -3826,7 +3813,7 @@
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
@@ -3908,33 +3895,33 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" t="s">
         <v>78</v>
       </c>
-      <c r="H2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" t="s">
-        <v>79</v>
-      </c>
       <c r="J2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
@@ -4007,7 +3994,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -4019,7 +4006,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -4064,7 +4051,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -4109,7 +4096,7 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
@@ -4154,7 +4141,7 @@
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
@@ -4199,7 +4186,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -4244,7 +4231,7 @@
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
@@ -4289,7 +4276,7 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
@@ -4334,7 +4321,7 @@
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
@@ -4429,42 +4416,42 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" t="s">
         <v>78</v>
       </c>
-      <c r="K2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L2" t="s">
-        <v>79</v>
-      </c>
       <c r="M2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
@@ -4563,7 +4550,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -4577,7 +4564,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -4598,7 +4585,7 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F8" s="3"/>
       <c r="H8" s="3">
@@ -4636,7 +4623,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -4681,7 +4668,7 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
@@ -4726,7 +4713,7 @@
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
@@ -4771,7 +4758,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -4816,7 +4803,7 @@
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
@@ -4861,7 +4848,7 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
@@ -4906,7 +4893,7 @@
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
@@ -4997,39 +4984,39 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
         <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="I2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" t="s">
         <v>78</v>
-      </c>
-      <c r="J2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K2" t="s">
-        <v>85</v>
-      </c>
-      <c r="L2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
@@ -5125,7 +5112,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3">
@@ -5151,23 +5138,23 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F7" s="3">
         <v>3.8738425925925924E-3</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -5206,7 +5193,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -5251,7 +5238,7 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
@@ -5296,7 +5283,7 @@
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
@@ -5341,7 +5328,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -5386,7 +5373,7 @@
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
@@ -5431,7 +5418,7 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
@@ -5476,7 +5463,7 @@
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
@@ -5506,24 +5493,26 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B69"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>54</v>
       </c>
@@ -5531,42 +5520,48 @@
         <v>42084</v>
       </c>
       <c r="D1" s="1">
+        <v>42113</v>
+      </c>
+      <c r="E1" s="1">
         <v>42133</v>
-      </c>
-      <c r="E1" s="1">
-        <v>42155</v>
       </c>
       <c r="F1" s="1">
         <v>42155</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="1">
+        <v>42155</v>
+      </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2" t="s">
         <v>116</v>
-      </c>
-      <c r="E2" t="s">
-        <v>86</v>
       </c>
       <c r="F2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
@@ -5575,20 +5570,23 @@
         <v>3.92824074074074E-3</v>
       </c>
       <c r="D3" s="3">
+        <v>3.9446990740740744E-3</v>
+      </c>
+      <c r="E3" s="3">
         <v>3.9024189814814811E-3</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3">
         <v>3.9827777777777778E-3</v>
       </c>
-      <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>50</v>
       </c>
@@ -5596,18 +5594,19 @@
         <v>4.2187500000000003E-3</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="3">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
         <v>4.2270254629629628E-3</v>
       </c>
-      <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>51</v>
       </c>
@@ -5620,10 +5619,11 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -5634,552 +5634,11 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="3">
-        <v>4.8333333333333336E-3</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N69"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B69"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="10.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="1">
-        <v>42105</v>
-      </c>
-      <c r="D1" s="1">
-        <v>42112</v>
-      </c>
-      <c r="E1" s="1">
-        <v>42112</v>
-      </c>
-      <c r="F1" s="1">
-        <v>42113</v>
-      </c>
-      <c r="G1" s="1">
-        <v>42126</v>
-      </c>
-      <c r="H1" s="1">
-        <v>42127</v>
-      </c>
-      <c r="I1" s="1">
-        <v>42141</v>
-      </c>
-      <c r="J1" s="1">
-        <v>42155</v>
-      </c>
-      <c r="K1" s="1">
-        <v>42155</v>
-      </c>
-      <c r="L1" s="1">
-        <v>42155</v>
-      </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="3">
-        <v>4.1655092592592586E-3</v>
-      </c>
-      <c r="D3" s="3">
-        <v>4.0949074074074074E-3</v>
-      </c>
-      <c r="E3" s="3">
-        <v>3.9803240740740745E-3</v>
-      </c>
-      <c r="F3" s="3">
-        <v>4.1064814814814809E-3</v>
-      </c>
-      <c r="G3" s="3">
-        <v>4.4423148148148147E-3</v>
-      </c>
-      <c r="H3" s="3">
-        <v>4.6724537037037038E-3</v>
-      </c>
-      <c r="I3" s="3">
-        <v>4.0198263888888888E-3</v>
-      </c>
-      <c r="J3" s="3">
-        <v>3.9854976851851848E-3</v>
-      </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="3">
-        <v>4.3680555555555556E-3</v>
-      </c>
-      <c r="D4" s="3">
-        <v>4.1273148148148146E-3</v>
-      </c>
-      <c r="E4" s="3">
-        <v>4.0543981481481481E-3</v>
-      </c>
-      <c r="F4" s="3">
-        <v>4.1655092592592586E-3</v>
-      </c>
-      <c r="G4" s="3">
-        <v>4.5672337962962958E-3</v>
-      </c>
-      <c r="H4" s="3">
-        <v>4.7511574074074079E-3</v>
-      </c>
-      <c r="I4" s="3">
-        <v>4.1292708333333338E-3</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3">
-        <v>4.1468865740740737E-3</v>
-      </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="3">
-        <v>4.2858796296296299E-3</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3">
-        <v>4.5697337962962966E-3</v>
-      </c>
-      <c r="H5" s="3">
-        <v>4.5810185185185181E-3</v>
-      </c>
-      <c r="I5" s="3">
-        <v>4.1206597222222226E-3</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3">
-        <v>4.0723726851851849E-3</v>
-      </c>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -6197,6 +5656,554 @@
         <v>52</v>
       </c>
       <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4.8333333333333336E-3</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N69"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1">
+        <v>42105</v>
+      </c>
+      <c r="D1" s="1">
+        <v>42112</v>
+      </c>
+      <c r="E1" s="1">
+        <v>42112</v>
+      </c>
+      <c r="F1" s="1">
+        <v>42113</v>
+      </c>
+      <c r="G1" s="1">
+        <v>42126</v>
+      </c>
+      <c r="H1" s="1">
+        <v>42127</v>
+      </c>
+      <c r="I1" s="1">
+        <v>42141</v>
+      </c>
+      <c r="J1" s="1">
+        <v>42155</v>
+      </c>
+      <c r="K1" s="1">
+        <v>42155</v>
+      </c>
+      <c r="L1" s="1">
+        <v>42155</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4.1655092592592586E-3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4.0949074074074074E-3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3.9803240740740745E-3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4.1064814814814809E-3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>4.4423148148148147E-3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4.6724537037037038E-3</v>
+      </c>
+      <c r="I3" s="3">
+        <v>4.0198263888888888E-3</v>
+      </c>
+      <c r="J3" s="3">
+        <v>3.9854976851851848E-3</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4.3680555555555556E-3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4.1273148148148146E-3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4.0543981481481481E-3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.1655092592592586E-3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>4.5672337962962958E-3</v>
+      </c>
+      <c r="H4" s="3">
+        <v>4.7511574074074079E-3</v>
+      </c>
+      <c r="I4" s="3">
+        <v>4.1292708333333338E-3</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3">
+        <v>4.1468865740740737E-3</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4.2858796296296299E-3</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3">
+        <v>4.5697337962962966E-3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4.5810185185185181E-3</v>
+      </c>
+      <c r="I5" s="3">
+        <v>4.1206597222222226E-3</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3">
+        <v>4.0723726851851849E-3</v>
+      </c>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="3"/>
       <c r="D8" s="3">
         <v>4.0370370370370369E-3</v>
       </c>
@@ -6207,10 +6214,10 @@
         <v>4.1099537037037033E-3</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="I8" s="3">
         <v>4.0373726851851855E-3</v>
@@ -6237,7 +6244,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -6282,7 +6289,7 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
@@ -6327,7 +6334,7 @@
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
@@ -6372,7 +6379,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -6417,7 +6424,7 @@
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
@@ -6462,7 +6469,7 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
@@ -6507,7 +6514,7 @@
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
@@ -6540,7 +6547,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6551,18 +6558,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>66</v>
-      </c>
-      <c r="C1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6573,7 +6580,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -6584,7 +6591,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -6595,7 +6602,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -6606,7 +6613,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -6617,7 +6624,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -6628,7 +6635,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -6639,7 +6646,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -6650,7 +6657,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -6661,7 +6668,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -6672,7 +6679,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -6683,7 +6690,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -6694,7 +6701,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -6705,7 +6712,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -6716,7 +6723,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -6727,7 +6734,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -6738,7 +6745,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -6749,7 +6756,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -6760,7 +6767,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -6771,7 +6778,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -6782,7 +6789,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -6793,7 +6800,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -6804,7 +6811,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -6824,7 +6831,7 @@
   <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B69"/>
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6859,21 +6866,21 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F2" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
@@ -6925,7 +6932,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3">
@@ -6938,7 +6945,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -6965,7 +6972,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -7010,7 +7017,7 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
@@ -7055,7 +7062,7 @@
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
@@ -7100,7 +7107,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -7145,7 +7152,7 @@
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
@@ -7190,7 +7197,7 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
@@ -7235,7 +7242,7 @@
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
@@ -7268,7 +7275,7 @@
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B69"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7297,7 +7304,7 @@
         <v>42098</v>
       </c>
       <c r="E1" s="1">
-        <v>42104</v>
+        <v>42105</v>
       </c>
       <c r="F1" s="1">
         <v>42105</v>
@@ -7323,36 +7330,36 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H2" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="K2" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
@@ -7435,7 +7442,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -7453,7 +7460,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -7490,7 +7497,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -7535,7 +7542,7 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
@@ -7580,7 +7587,7 @@
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
@@ -7625,7 +7632,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -7670,7 +7677,7 @@
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
@@ -7715,7 +7722,7 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
@@ -7760,7 +7767,7 @@
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
@@ -7790,10 +7797,2038 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1">
+        <v>42084</v>
+      </c>
+      <c r="D1" s="1">
+        <v>42091</v>
+      </c>
+      <c r="E1" s="1">
+        <v>42091</v>
+      </c>
+      <c r="F1" s="1">
+        <v>42105</v>
+      </c>
+      <c r="G1" s="1">
+        <v>42132</v>
+      </c>
+      <c r="H1" s="1">
+        <v>42155</v>
+      </c>
+      <c r="I1" s="1">
+        <v>42155</v>
+      </c>
+      <c r="J1" s="1">
+        <v>42155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4.0532407407407409E-3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4.3253472222222226E-3</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3">
+        <v>4.1149305555555548E-3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>4.0011111111111107E-3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4.0239699074074075E-3</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4.2291666666666667E-3</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
+        <v>4.2065972222222218E-3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.1965277777777773E-3</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
+        <v>4.0856481481481481E-3</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4.3506944444444444E-3</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3">
+        <v>4.2388541666666668E-3</v>
+      </c>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4.2662037037037035E-3</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
+        <v>4.2510416666666669E-3</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3">
+        <v>4.2130787037037041E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4.7881944444444439E-3</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="I9" s="3">
+        <v>4.6356597222222224E-3</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.7109375" customWidth="1"/>
+    <col min="11" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" customWidth="1"/>
+    <col min="14" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1">
+        <v>42105</v>
+      </c>
+      <c r="D1" s="1">
+        <v>42112</v>
+      </c>
+      <c r="E1" s="1">
+        <v>42119</v>
+      </c>
+      <c r="F1" s="1">
+        <v>42133</v>
+      </c>
+      <c r="G1" s="1">
+        <v>42141</v>
+      </c>
+      <c r="H1" s="1">
+        <v>42141</v>
+      </c>
+      <c r="I1" s="1">
+        <v>42141</v>
+      </c>
+      <c r="J1" s="1">
+        <v>42155</v>
+      </c>
+      <c r="K1" s="1">
+        <v>42155</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4.1909722222222218E-3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4.0439814814814809E-3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4.4328703703703709E-3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3.9814814814814817E-3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>4.0210532407407408E-3</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3">
+        <v>3.9942245370370366E-3</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4.3275462962962963E-3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4.0694444444444441E-3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4.4907407407407405E-3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.146990740740741E-3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>4.1255439814814809E-3</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3">
+        <v>4.1354629629629632E-3</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4.3969907407407412E-3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4.138888888888889E-3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4.5717592592592589E-3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4.1562500000000002E-3</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
+        <v>4.1920717592592591E-3</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3">
+        <v>4.1009259259259254E-3</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
+        <v>4.2245370370370371E-3</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4.7337962962962958E-3</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4.2824074074074075E-3</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="I9" s="3">
+        <v>4.5351041666666665E-3</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3">
+        <v>4.5731481481481482E-3</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J69"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1">
+        <v>42084</v>
+      </c>
+      <c r="D1" s="1">
+        <v>42098</v>
+      </c>
+      <c r="E1" s="1">
+        <v>42105</v>
+      </c>
+      <c r="F1" s="1">
+        <v>42493</v>
+      </c>
+      <c r="G1" s="1">
+        <v>42507</v>
+      </c>
+      <c r="H1" s="1">
+        <v>42141</v>
+      </c>
+      <c r="I1" s="1">
+        <v>42155</v>
+      </c>
+      <c r="J1" s="1">
+        <v>42155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4.1099537037037033E-3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4.2997685185185179E-3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3.9942129629629633E-3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4.1153935185185191E-3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>4.0397916666666664E-3</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3">
+        <v>4.058472222222222E-3</v>
+      </c>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3">
+        <v>4.1863425925925931E-3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4.4884259259259261E-3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4.0787037037037033E-3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.2909722222222229E-3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>4.1909722222222218E-3</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3">
+        <v>4.0977893518518516E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3">
+        <v>4.2766203703703707E-3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4.9560185185185185E-3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4.1365740740740746E-3</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4.3244212962962958E-3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4.2411574074074079E-3</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3">
+        <v>4.2133912037037036E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="F6" s="3">
+        <v>4.3896990740740745E-3</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
+        <v>4.3871296296296288E-3</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
+        <v>4.8263888888888887E-3</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B69"/>
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="1">
+        <v>42113</v>
+      </c>
+      <c r="D1" s="1">
+        <v>42140</v>
+      </c>
+      <c r="E1" s="1">
+        <v>42098</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4.0342939814814816E-3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4.3923611111111116E-3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4.091655092592592E-3</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
+        <v>4.5740740740740742E-3</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7817,67 +9852,51 @@
         <v>54</v>
       </c>
       <c r="C1" s="1">
-        <v>42105</v>
+        <v>42140</v>
       </c>
       <c r="D1" s="1">
-        <v>42091</v>
+        <v>42155</v>
       </c>
       <c r="E1" s="1">
-        <v>42098</v>
-      </c>
-      <c r="F1" s="1">
-        <v>42105</v>
-      </c>
-      <c r="G1" s="1">
-        <v>42112</v>
-      </c>
-      <c r="H1" s="1">
-        <v>42119</v>
-      </c>
-      <c r="I1" s="1">
-        <v>42126</v>
-      </c>
-      <c r="J1" s="1">
-        <v>42141</v>
-      </c>
-      <c r="K1" s="1">
         <v>42155</v>
       </c>
-      <c r="L1" s="1">
-        <v>42155</v>
-      </c>
-      <c r="M1" s="1">
-        <v>42155</v>
-      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>216</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
       </c>
       <c r="C3" s="3">
-        <v>4.1149305555555548E-3</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3">
-        <v>4.0532407407407409E-3</v>
-      </c>
+        <v>4.4039351851851852E-3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4.1668865740740737E-3</v>
+      </c>
+      <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -7891,14 +9910,10 @@
         <v>50</v>
       </c>
       <c r="C4" s="3">
-        <v>4.1965277777777773E-3</v>
-      </c>
-      <c r="D4" s="3">
-        <v>4.2065972222222218E-3</v>
-      </c>
-      <c r="E4" s="3">
-        <v>4.2291666666666667E-3</v>
-      </c>
+        <v>4.7280092592592591E-3</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -7913,9 +9928,7 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="3">
-        <v>4.3506944444444444E-3</v>
-      </c>
+      <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -7925,7 +9938,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -7939,7 +9952,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -7955,479 +9968,6 @@
       <c r="B8" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="3">
-        <v>4.2510416666666669E-3</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3">
-        <v>4.2662037037037035E-3</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="E9" s="3">
-        <v>4.7881944444444439E-3</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M69"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B69"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" customWidth="1"/>
-    <col min="12" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="1">
-        <v>42145</v>
-      </c>
-      <c r="D1" s="1">
-        <v>42091</v>
-      </c>
-      <c r="E1" s="1">
-        <v>42098</v>
-      </c>
-      <c r="F1" s="1">
-        <v>42105</v>
-      </c>
-      <c r="G1" s="1">
-        <v>42112</v>
-      </c>
-      <c r="H1" s="1">
-        <v>42119</v>
-      </c>
-      <c r="I1" s="1">
-        <v>42126</v>
-      </c>
-      <c r="J1" s="1">
-        <v>42141</v>
-      </c>
-      <c r="K1" s="1">
-        <v>42155</v>
-      </c>
-      <c r="L1" s="1">
-        <v>42155</v>
-      </c>
-      <c r="M1" s="1">
-        <v>42155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>52</v>
-      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -8443,7 +9983,9 @@
         <v>53</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3">
+        <v>4.7186689814814808E-3</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="J9" s="3"/>
@@ -8451,7 +9993,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -8496,7 +10038,7 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
@@ -8541,7 +10083,7 @@
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
@@ -8586,7 +10128,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -8631,7 +10173,7 @@
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
@@ -8676,7 +10218,7 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
@@ -8721,1428 +10263,7 @@
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M69"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B69"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" customWidth="1"/>
-    <col min="12" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="1">
-        <v>42145</v>
-      </c>
-      <c r="D1" s="1">
-        <v>42091</v>
-      </c>
-      <c r="E1" s="1">
-        <v>42098</v>
-      </c>
-      <c r="F1" s="1">
-        <v>42105</v>
-      </c>
-      <c r="G1" s="1">
-        <v>42112</v>
-      </c>
-      <c r="H1" s="1">
-        <v>42119</v>
-      </c>
-      <c r="I1" s="1">
-        <v>42126</v>
-      </c>
-      <c r="J1" s="1">
-        <v>42141</v>
-      </c>
-      <c r="K1" s="1">
-        <v>42155</v>
-      </c>
-      <c r="L1" s="1">
-        <v>42155</v>
-      </c>
-      <c r="M1" s="1">
-        <v>42155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="3">
-        <v>4.1099537037037033E-3</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3">
-        <v>4.1153935185185191E-3</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="3">
-        <v>4.1863425925925931E-3</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3">
-        <v>4.2909722222222229E-3</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="3">
-        <v>4.2766203703703707E-3</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3">
-        <v>4.3244212962962958E-3</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3">
-        <v>4.3896990740740745E-3</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M69"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B69"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" customWidth="1"/>
-    <col min="12" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="1">
-        <v>42145</v>
-      </c>
-      <c r="D1" s="1">
-        <v>42091</v>
-      </c>
-      <c r="E1" s="1">
-        <v>42098</v>
-      </c>
-      <c r="F1" s="1">
-        <v>42105</v>
-      </c>
-      <c r="G1" s="1">
-        <v>42112</v>
-      </c>
-      <c r="H1" s="1">
-        <v>42119</v>
-      </c>
-      <c r="I1" s="1">
-        <v>42126</v>
-      </c>
-      <c r="J1" s="1">
-        <v>42141</v>
-      </c>
-      <c r="K1" s="1">
-        <v>42155</v>
-      </c>
-      <c r="L1" s="1">
-        <v>42155</v>
-      </c>
-      <c r="M1" s="1">
-        <v>42155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M69"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B69"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" customWidth="1"/>
-    <col min="12" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="1">
-        <v>42145</v>
-      </c>
-      <c r="D1" s="1">
-        <v>42091</v>
-      </c>
-      <c r="E1" s="1">
-        <v>42098</v>
-      </c>
-      <c r="F1" s="1">
-        <v>42105</v>
-      </c>
-      <c r="G1" s="1">
-        <v>42112</v>
-      </c>
-      <c r="H1" s="1">
-        <v>42119</v>
-      </c>
-      <c r="I1" s="1">
-        <v>42126</v>
-      </c>
-      <c r="J1" s="1">
-        <v>42141</v>
-      </c>
-      <c r="K1" s="1">
-        <v>42155</v>
-      </c>
-      <c r="L1" s="1">
-        <v>42155</v>
-      </c>
-      <c r="M1" s="1">
-        <v>42155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
@@ -10174,8 +10295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10185,7 +10306,7 @@
     <col min="3" max="3" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="2"/>
@@ -10202,7 +10323,7 @@
         <v>42105</v>
       </c>
       <c r="E1" s="5">
-        <v>42106</v>
+        <v>42105</v>
       </c>
       <c r="F1" s="5">
         <v>42119</v>
@@ -10225,27 +10346,27 @@
         <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>49</v>
@@ -10318,7 +10439,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -10328,7 +10449,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -10378,25 +10499,25 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -10404,22 +10525,22 @@
         <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -10427,22 +10548,22 @@
         <v>7</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -10453,19 +10574,19 @@
         <v>34</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -10473,22 +10594,22 @@
         <v>5</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -10496,22 +10617,22 @@
         <v>4</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -10519,22 +10640,22 @@
         <v>3</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -10542,22 +10663,22 @@
         <v>2</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -10565,45 +10686,45 @@
         <v>1</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -10611,22 +10732,22 @@
         <v>8</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -10634,22 +10755,22 @@
         <v>7</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -10657,22 +10778,22 @@
         <v>6</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -10680,22 +10801,22 @@
         <v>5</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -10703,22 +10824,22 @@
         <v>4</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -10726,22 +10847,22 @@
         <v>3</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -10749,22 +10870,22 @@
         <v>2</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -10772,39 +10893,39 @@
         <v>1</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -10812,16 +10933,16 @@
         <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -10829,16 +10950,16 @@
         <v>7</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -10846,16 +10967,16 @@
         <v>6</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -10863,16 +10984,16 @@
         <v>5</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -10880,16 +11001,16 @@
         <v>4</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -10897,16 +11018,16 @@
         <v>3</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -10914,16 +11035,16 @@
         <v>2</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
@@ -10931,21 +11052,21 @@
         <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
@@ -10990,7 +11111,7 @@
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
@@ -11035,25 +11156,25 @@
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="G56" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
@@ -11064,19 +11185,19 @@
         <v>31</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
@@ -11084,22 +11205,22 @@
         <v>7</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
@@ -11110,10 +11231,10 @@
         <v>35</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>35</v>
@@ -11122,7 +11243,7 @@
         <v>35</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
@@ -11130,22 +11251,22 @@
         <v>5</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
@@ -11153,22 +11274,22 @@
         <v>4</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
@@ -11176,22 +11297,22 @@
         <v>3</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
@@ -11199,22 +11320,22 @@
         <v>2</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
@@ -11222,36 +11343,36 @@
         <v>1</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
@@ -11259,13 +11380,13 @@
         <v>4</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
@@ -11273,13 +11394,13 @@
         <v>3</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
@@ -11287,13 +11408,13 @@
         <v>2</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
@@ -11301,13 +11422,13 @@
         <v>1</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -11321,7 +11442,7 @@
   <dimension ref="A1:P69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B69"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11379,33 +11500,33 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
         <v>68</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
         <v>69</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>71</v>
       </c>
-      <c r="F2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>72</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>73</v>
       </c>
-      <c r="I2" t="s">
-        <v>74</v>
-      </c>
       <c r="J2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
@@ -11472,7 +11593,7 @@
         <v>4.4299768518518516E-3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" s="3">
         <v>4.681712962962963E-3</v>
@@ -11495,7 +11616,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="3">
         <v>4.5524305555555552E-3</v>
@@ -11516,7 +11637,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -11524,7 +11645,7 @@
         <v>52</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="3">
         <v>4.0775462962962961E-3</v>
@@ -11533,7 +11654,7 @@
         <v>4.5034722222222221E-3</v>
       </c>
       <c r="F8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G8" s="3"/>
     </row>
@@ -11548,7 +11669,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -11593,7 +11714,7 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
@@ -11638,7 +11759,7 @@
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
@@ -11683,7 +11804,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -11728,7 +11849,7 @@
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
@@ -11773,7 +11894,7 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
@@ -11818,7 +11939,7 @@
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
@@ -11851,7 +11972,7 @@
   <dimension ref="A1:S69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B69"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11861,10 +11982,10 @@
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
     <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -11886,13 +12007,13 @@
         <v>42105</v>
       </c>
       <c r="F1" s="1">
-        <v>42105</v>
+        <v>42112</v>
       </c>
       <c r="G1" s="1">
-        <v>42112</v>
+        <v>42113</v>
       </c>
       <c r="H1" s="1">
-        <v>42113</v>
+        <v>42126</v>
       </c>
       <c r="I1" s="1">
         <v>42141</v>
@@ -11917,36 +12038,36 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
         <v>80</v>
       </c>
-      <c r="D2" t="s">
-        <v>81</v>
-      </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s">
         <v>82</v>
       </c>
-      <c r="G2" t="s">
-        <v>64</v>
-      </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>218</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
@@ -11961,17 +12082,15 @@
         <v>4.1585648148148146E-3</v>
       </c>
       <c r="F3" s="3">
-        <v>4.2314814814814819E-3</v>
+        <v>3.9884259259259256E-3</v>
       </c>
       <c r="G3" s="3">
-        <v>3.9884259259259256E-3</v>
+        <v>4.0659722222222226E-3</v>
       </c>
       <c r="H3" s="3">
-        <v>4.0659722222222226E-3</v>
-      </c>
-      <c r="I3" s="3">
         <v>4.0277777777777777E-3</v>
       </c>
+      <c r="I3" s="3"/>
       <c r="J3" s="3">
         <v>4.120532407407407E-3</v>
       </c>
@@ -11990,17 +12109,15 @@
         <v>4.2523148148148147E-3</v>
       </c>
       <c r="F4" s="3">
-        <v>4.4629629629629628E-3</v>
+        <v>4.1597222222222226E-3</v>
       </c>
       <c r="G4" s="3">
-        <v>4.1597222222222226E-3</v>
+        <v>4.2638888888888891E-3</v>
       </c>
       <c r="H4" s="3">
-        <v>4.2638888888888891E-3</v>
-      </c>
-      <c r="I4" s="3">
         <v>4.1944444444444442E-3</v>
       </c>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -12014,21 +12131,19 @@
         <v>4.4606481481481476E-3</v>
       </c>
       <c r="F5" s="3">
-        <v>4.6759259259259263E-3</v>
+        <v>4.2638888888888891E-3</v>
       </c>
       <c r="G5" s="3">
-        <v>4.2638888888888891E-3</v>
+        <v>4.363425925925926E-3</v>
       </c>
       <c r="H5" s="3">
-        <v>4.363425925925926E-3</v>
-      </c>
-      <c r="I5" s="3">
         <v>4.3460648148148156E-3</v>
       </c>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -12040,7 +12155,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -12066,6 +12181,7 @@
       <c r="B9" t="s">
         <v>53</v>
       </c>
+      <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -12076,7 +12192,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -12121,7 +12237,7 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
@@ -12166,7 +12282,7 @@
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
@@ -12211,7 +12327,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -12256,7 +12372,7 @@
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
@@ -12301,7 +12417,7 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
@@ -12346,7 +12462,7 @@
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
@@ -12376,10 +12492,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K69"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B69"/>
+      <selection activeCell="F41" sqref="F41:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12387,12 +12503,11 @@
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12" customWidth="1"/>
-    <col min="9" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12" customWidth="1"/>
+    <col min="8" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>54</v>
       </c>
@@ -12406,59 +12521,53 @@
         <v>42112</v>
       </c>
       <c r="F1" s="1">
-        <v>42112</v>
+        <v>42120</v>
       </c>
       <c r="G1" s="1">
-        <v>42120</v>
+        <v>42126</v>
       </c>
       <c r="H1" s="1">
-        <v>42126</v>
+        <v>42141</v>
       </c>
       <c r="I1" s="1">
-        <v>42141</v>
+        <v>42155</v>
       </c>
       <c r="J1" s="1">
         <v>42155</v>
       </c>
-      <c r="K1" s="1">
-        <v>42155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G2" t="s">
         <v>57</v>
-      </c>
-      <c r="G2" t="s">
-        <v>87</v>
       </c>
       <c r="H2" t="s">
         <v>58</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="J2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
@@ -12472,19 +12581,19 @@
       <c r="E3" s="3">
         <v>3.9687500000000001E-3</v>
       </c>
-      <c r="G3" s="3">
+      <c r="F3" s="3">
         <v>4.2291666666666667E-3</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
+        <v>4.2734953703703702E-3</v>
+      </c>
       <c r="I3" s="3">
-        <v>4.2734953703703702E-3</v>
-      </c>
-      <c r="J3" s="3">
         <v>4.0263888888888892E-3</v>
       </c>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>50</v>
       </c>
@@ -12497,21 +12606,20 @@
       <c r="E4" s="3">
         <v>4.1249999999999993E-3</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3">
+        <v>4.378472222222222E-3</v>
+      </c>
       <c r="G4" s="3">
-        <v>4.378472222222222E-3</v>
+        <v>4.2881944444444443E-3</v>
       </c>
       <c r="H4" s="3">
-        <v>4.2881944444444443E-3</v>
-      </c>
-      <c r="I4" s="3">
         <v>4.3560185185185186E-3</v>
       </c>
-      <c r="K4" s="3">
+      <c r="J4" s="3">
         <v>4.1644212962962963E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>51</v>
       </c>
@@ -12523,24 +12631,21 @@
         <v>4.2430555555555563E-3</v>
       </c>
       <c r="F5" s="3">
-        <v>4.2893518518518524E-3</v>
+        <v>4.332175925925926E-3</v>
       </c>
       <c r="G5" s="3">
-        <v>4.332175925925926E-3</v>
+        <v>4.1481481481481482E-3</v>
       </c>
       <c r="H5" s="3">
-        <v>4.1481481481481482E-3</v>
-      </c>
-      <c r="I5" s="3">
         <v>4.4979166666666666E-3</v>
       </c>
-      <c r="K5" s="3">
+      <c r="J5" s="3">
         <v>4.1319560185185183E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -12548,12 +12653,11 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -12561,10 +12665,9 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>52</v>
       </c>
@@ -12572,55 +12675,52 @@
         <v>4.409722222222222E-3</v>
       </c>
       <c r="D8" s="3"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3">
+      <c r="H8" s="3">
         <v>4.5335648148148149E-3</v>
       </c>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3">
-        <v>4.4803240740740749E-3</v>
+        <v>4.9756944444444449E-3</v>
       </c>
       <c r="G9" s="3">
-        <v>4.9756944444444449E-3</v>
-      </c>
-      <c r="H9" s="3">
         <v>4.7789351851851855E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>4</v>
       </c>
@@ -12642,7 +12742,7 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
@@ -12687,7 +12787,7 @@
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
@@ -12732,7 +12832,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -12777,7 +12877,7 @@
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
@@ -12822,7 +12922,7 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
@@ -12867,7 +12967,7 @@
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
@@ -12900,12 +13000,12 @@
   <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B69"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -12957,39 +13057,39 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" t="s">
         <v>88</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>89</v>
       </c>
-      <c r="E2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" t="s">
-        <v>92</v>
-      </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" t="s">
         <v>78</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>84</v>
-      </c>
-      <c r="K2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
@@ -13076,7 +13176,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3">
@@ -13088,7 +13188,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -13118,7 +13218,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -13163,7 +13263,7 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
@@ -13208,7 +13308,7 @@
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
@@ -13253,7 +13353,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -13298,7 +13398,7 @@
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
@@ -13343,7 +13443,7 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
@@ -13388,7 +13488,7 @@
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
@@ -13421,8 +13521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13473,33 +13573,33 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
         <v>80</v>
       </c>
-      <c r="D2" t="s">
-        <v>81</v>
-      </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
         <v>59</v>
-      </c>
-      <c r="J2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
@@ -13574,7 +13674,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -13584,7 +13684,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -13637,7 +13737,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -13682,7 +13782,7 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
@@ -13727,7 +13827,7 @@
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
@@ -13772,7 +13872,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -13817,7 +13917,7 @@
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
@@ -13862,7 +13962,7 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
@@ -13907,7 +14007,7 @@
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
@@ -13937,260 +14037,239 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K69"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B69"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>54</v>
       </c>
       <c r="C1" s="1">
-        <v>42091</v>
+        <v>42098</v>
       </c>
       <c r="D1" s="1">
-        <v>42098</v>
+        <v>42105</v>
       </c>
       <c r="E1" s="1">
-        <v>42105</v>
+        <v>42112</v>
       </c>
       <c r="F1" s="1">
-        <v>42112</v>
+        <v>42029</v>
       </c>
       <c r="G1" s="1">
-        <v>42029</v>
+        <v>42126</v>
       </c>
       <c r="H1" s="1">
-        <v>42126</v>
+        <v>42141</v>
       </c>
       <c r="I1" s="1">
-        <v>42141</v>
+        <v>42155</v>
       </c>
       <c r="J1" s="1">
         <v>42155</v>
       </c>
-      <c r="K1" s="1">
-        <v>42155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="J2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="K2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
       </c>
       <c r="C3" s="3">
-        <v>4.3449074074074076E-3</v>
+        <v>4.3217592592592596E-3</v>
       </c>
       <c r="D3" s="3">
-        <v>4.3217592592592596E-3</v>
+        <v>4.2106481481481483E-3</v>
       </c>
       <c r="E3" s="3">
-        <v>4.2106481481481483E-3</v>
+        <v>3.9803240740740745E-3</v>
       </c>
       <c r="F3" s="3">
-        <v>3.9803240740740745E-3</v>
+        <v>4.2893518518518524E-3</v>
       </c>
       <c r="G3" s="3">
-        <v>4.2893518518518524E-3</v>
+        <v>3.9108796296296296E-3</v>
       </c>
       <c r="H3" s="3">
-        <v>3.9108796296296296E-3</v>
+        <v>3.9014930555555556E-3</v>
       </c>
       <c r="I3" s="3">
-        <v>3.9014930555555556E-3</v>
-      </c>
-      <c r="J3" s="3">
         <v>3.8303472222222224E-3</v>
       </c>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="3">
-        <v>4.6122685185185181E-3</v>
+        <v>4.3680555555555556E-3</v>
       </c>
       <c r="D4" s="3">
-        <v>4.3680555555555556E-3</v>
+        <v>4.2615740740740739E-3</v>
       </c>
       <c r="E4" s="3">
-        <v>4.2615740740740739E-3</v>
+        <v>3.9652777777777776E-3</v>
       </c>
       <c r="F4" s="3">
-        <v>3.9652777777777776E-3</v>
+        <v>4.4004629629629628E-3</v>
       </c>
       <c r="G4" s="3">
-        <v>4.4004629629629628E-3</v>
+        <v>4.0138888888888889E-3</v>
       </c>
       <c r="H4" s="3">
-        <v>4.0138888888888889E-3</v>
+        <v>3.9809490740740743E-3</v>
       </c>
       <c r="I4" s="3">
-        <v>3.9809490740740743E-3</v>
-      </c>
-      <c r="J4" s="3">
         <v>3.8734606481481484E-3</v>
       </c>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="3">
-        <v>4.9108796296296296E-3</v>
+        <v>3.922453703703704E-3</v>
       </c>
       <c r="D5" s="3">
-        <v>3.922453703703704E-3</v>
+        <v>4.3425925925925923E-3</v>
       </c>
       <c r="E5" s="3">
-        <v>4.3425925925925923E-3</v>
+        <v>4.0439814814814809E-3</v>
       </c>
       <c r="F5" s="3">
-        <v>4.0439814814814809E-3</v>
+        <v>4.394675925925926E-3</v>
       </c>
       <c r="G5" s="3">
-        <v>4.394675925925926E-3</v>
+        <v>4.0972222222222226E-3</v>
       </c>
       <c r="H5" s="3">
-        <v>4.0972222222222226E-3</v>
+        <v>4.0348148148148149E-3</v>
       </c>
       <c r="I5" s="3">
-        <v>4.0348148148148149E-3</v>
-      </c>
-      <c r="J5" s="3">
         <v>4.0648148148148154E-3</v>
       </c>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="3">
-        <v>5.1006944444444442E-3</v>
+        <v>4.2349537037037034E-3</v>
       </c>
       <c r="D6" s="3">
-        <v>4.2349537037037034E-3</v>
+        <v>4.9143518518518512E-3</v>
       </c>
       <c r="E6" s="3">
-        <v>4.9143518518518512E-3</v>
+        <v>4.1967592592592586E-3</v>
       </c>
       <c r="F6" s="3">
-        <v>4.1967592592592586E-3</v>
+        <v>4.7731481481481479E-3</v>
       </c>
       <c r="G6" s="3">
-        <v>4.7731481481481479E-3</v>
-      </c>
-      <c r="H6" s="3">
         <v>4.2129629629629626E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>52</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="K8" s="3">
+      <c r="J8" s="3">
         <v>4.2818750000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>53</v>
       </c>
+      <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>4</v>
       </c>
@@ -14212,7 +14291,7 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
@@ -14257,7 +14336,7 @@
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
@@ -14302,7 +14381,7 @@
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -14347,7 +14426,7 @@
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
@@ -14392,7 +14471,7 @@
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.25">
@@ -14437,7 +14516,7 @@
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">

--- a/testseason.xlsx
+++ b/testseason.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9450" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9450" firstSheet="9" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Team Info" sheetId="1" r:id="rId1"/>
@@ -1253,7 +1253,7 @@
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,7 +1422,9 @@
         <v>74</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3">
+        <v>4.8622685185185184E-3</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1782,8 +1784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2299,7 +2301,7 @@
   <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2441,7 +2443,9 @@
       <c r="B6" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -2463,7 +2467,9 @@
       <c r="B8" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -2783,7 +2789,7 @@
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2881,11 +2887,11 @@
       <c r="E3" s="3">
         <v>4.2060185185185187E-3</v>
       </c>
-      <c r="F3" s="4">
-        <v>0.24652777777777779</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0.26111111111111113</v>
+      <c r="F3" s="3">
+        <v>4.108796296296297E-3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>4.3518518518518515E-3</v>
       </c>
       <c r="H3" s="3">
         <v>4.3832291666666664E-3</v>
@@ -2910,11 +2916,11 @@
       <c r="E4" s="3">
         <v>4.3229166666666667E-3</v>
       </c>
-      <c r="F4" s="4">
-        <v>0.24861111111111112</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.26111111111111113</v>
+      <c r="F4" s="3">
+        <v>4.1435185185185186E-3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>4.3518518518518515E-3</v>
       </c>
       <c r="H4" s="3">
         <v>4.4920370370370366E-3</v>
@@ -2935,11 +2941,11 @@
       <c r="E5" s="3">
         <v>4.4008101851851856E-3</v>
       </c>
-      <c r="F5" s="4">
-        <v>0.24305555555555555</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.26666666666666666</v>
+      <c r="F5" s="3">
+        <v>4.0509259259259257E-3</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4.4444444444444444E-3</v>
       </c>
       <c r="H5" s="3">
         <v>4.4558680555555558E-3</v>
@@ -3004,16 +3010,19 @@
       <c r="B12">
         <v>8</v>
       </c>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>7</v>
       </c>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>6</v>
       </c>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15">
@@ -3024,83 +3033,86 @@
       <c r="B16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>6</v>
       </c>
@@ -4927,7 +4939,7 @@
   <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B69"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5037,7 +5049,7 @@
         <v>3.929398148148148E-3</v>
       </c>
       <c r="H3" s="3">
-        <v>3.9814814814814817E-3</v>
+        <v>3.9247685185185184E-3</v>
       </c>
       <c r="I3" s="3">
         <v>4.0006481481481481E-3</v>
@@ -5068,7 +5080,7 @@
         <v>4.0972222222222226E-3</v>
       </c>
       <c r="H4" s="3">
-        <v>3.3055555555555551E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="I4" s="3">
         <v>4.1756828703703704E-3</v>
@@ -5986,14 +5998,15 @@
   <dimension ref="A1:N69"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
@@ -7800,7 +7813,7 @@
   <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7830,7 +7843,7 @@
         <v>42105</v>
       </c>
       <c r="G1" s="1">
-        <v>42132</v>
+        <v>42133</v>
       </c>
       <c r="H1" s="1">
         <v>42155</v>
@@ -10296,7 +10309,7 @@
   <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11442,7 +11455,7 @@
   <dimension ref="A1:P69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11465,7 +11478,7 @@
         <v>54</v>
       </c>
       <c r="C1" s="1">
-        <v>42090</v>
+        <v>42091</v>
       </c>
       <c r="D1" s="1">
         <v>42098</v>
@@ -11535,10 +11548,10 @@
         <v>3.9628472222222226E-3</v>
       </c>
       <c r="D3" s="3">
-        <v>3.84837962962963E-3</v>
+        <v>3.8969907407407408E-3</v>
       </c>
       <c r="E3" s="3">
-        <v>4.5682870370370365E-3</v>
+        <v>4.6168981481481486E-3</v>
       </c>
       <c r="F3" s="3">
         <v>3.8217592592592591E-3</v>
@@ -11651,7 +11664,7 @@
         <v>4.0775462962962961E-3</v>
       </c>
       <c r="E8" s="3">
-        <v>4.5034722222222221E-3</v>
+        <v>4.611111111111111E-3</v>
       </c>
       <c r="F8" t="s">
         <v>76</v>
@@ -13000,7 +13013,7 @@
   <dimension ref="A1:L69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13521,8 +13534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/testseason.xlsx
+++ b/testseason.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9450" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9450" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Team Info" sheetId="1" r:id="rId1"/>
@@ -801,9 +801,6 @@
     <t>Henry Prosser</t>
   </si>
   <si>
-    <t>Aidan daly-Jensen</t>
-  </si>
-  <si>
     <t>Clark Fisher</t>
   </si>
   <si>
@@ -1420,6 +1417,9 @@
   </si>
   <si>
     <t>Gugliemo Carcano</t>
+  </si>
+  <si>
+    <t>Aidan Daly-Jensen</t>
   </si>
 </sst>
 </file>
@@ -2199,25 +2199,25 @@
         <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2225,25 +2225,25 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2251,25 +2251,25 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2277,25 +2277,25 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2303,25 +2303,25 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2329,25 +2329,25 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
+        <v>280</v>
+      </c>
+      <c r="D16" t="s">
+        <v>280</v>
+      </c>
+      <c r="E16" t="s">
+        <v>280</v>
+      </c>
+      <c r="F16" t="s">
         <v>281</v>
       </c>
-      <c r="D16" t="s">
-        <v>281</v>
-      </c>
-      <c r="E16" t="s">
-        <v>281</v>
-      </c>
-      <c r="F16" t="s">
-        <v>282</v>
-      </c>
       <c r="G16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -2355,25 +2355,25 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F17" t="s">
+        <v>280</v>
+      </c>
+      <c r="G17" t="s">
         <v>281</v>
       </c>
-      <c r="G17" t="s">
-        <v>282</v>
-      </c>
       <c r="I17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -2381,25 +2381,25 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F18" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -2407,25 +2407,25 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -2899,25 +2899,25 @@
         <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2925,25 +2925,25 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2951,25 +2951,25 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2977,25 +2977,25 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -3003,25 +3003,25 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -3029,25 +3029,25 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -3055,25 +3055,25 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -3081,25 +3081,25 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -3107,25 +3107,25 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -3574,16 +3574,16 @@
         <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3608,16 +3608,16 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -3625,16 +3625,16 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -3659,16 +3659,16 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -3676,16 +3676,16 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -3693,16 +3693,16 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -4192,28 +4192,28 @@
         <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -4221,28 +4221,28 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -4250,28 +4250,28 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -4279,28 +4279,28 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -4308,28 +4308,28 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -4337,28 +4337,28 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
+        <v>319</v>
+      </c>
+      <c r="D16" t="s">
+        <v>319</v>
+      </c>
+      <c r="E16" t="s">
+        <v>319</v>
+      </c>
+      <c r="F16" t="s">
+        <v>319</v>
+      </c>
+      <c r="G16" t="s">
+        <v>316</v>
+      </c>
+      <c r="H16" t="s">
         <v>320</v>
       </c>
-      <c r="D16" t="s">
+      <c r="I16" t="s">
         <v>320</v>
       </c>
-      <c r="E16" t="s">
+      <c r="J16" t="s">
         <v>320</v>
-      </c>
-      <c r="F16" t="s">
-        <v>320</v>
-      </c>
-      <c r="G16" t="s">
-        <v>317</v>
-      </c>
-      <c r="H16" t="s">
-        <v>321</v>
-      </c>
-      <c r="I16" t="s">
-        <v>321</v>
-      </c>
-      <c r="J16" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -4366,28 +4366,28 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
+        <v>320</v>
+      </c>
+      <c r="D17" t="s">
+        <v>320</v>
+      </c>
+      <c r="E17" t="s">
+        <v>320</v>
+      </c>
+      <c r="F17" t="s">
+        <v>320</v>
+      </c>
+      <c r="G17" t="s">
+        <v>323</v>
+      </c>
+      <c r="H17" t="s">
+        <v>319</v>
+      </c>
+      <c r="I17" t="s">
+        <v>319</v>
+      </c>
+      <c r="J17" t="s">
         <v>321</v>
-      </c>
-      <c r="D17" t="s">
-        <v>321</v>
-      </c>
-      <c r="E17" t="s">
-        <v>321</v>
-      </c>
-      <c r="F17" t="s">
-        <v>321</v>
-      </c>
-      <c r="G17" t="s">
-        <v>324</v>
-      </c>
-      <c r="H17" t="s">
-        <v>320</v>
-      </c>
-      <c r="I17" t="s">
-        <v>320</v>
-      </c>
-      <c r="J17" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -4395,28 +4395,28 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
+        <v>321</v>
+      </c>
+      <c r="D18" t="s">
+        <v>321</v>
+      </c>
+      <c r="E18" t="s">
+        <v>321</v>
+      </c>
+      <c r="F18" t="s">
+        <v>316</v>
+      </c>
+      <c r="G18" t="s">
+        <v>319</v>
+      </c>
+      <c r="H18" t="s">
         <v>322</v>
       </c>
-      <c r="D18" t="s">
+      <c r="I18" t="s">
         <v>322</v>
       </c>
-      <c r="E18" t="s">
+      <c r="J18" t="s">
         <v>322</v>
-      </c>
-      <c r="F18" t="s">
-        <v>317</v>
-      </c>
-      <c r="G18" t="s">
-        <v>320</v>
-      </c>
-      <c r="H18" t="s">
-        <v>323</v>
-      </c>
-      <c r="I18" t="s">
-        <v>323</v>
-      </c>
-      <c r="J18" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -4424,28 +4424,28 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -4949,22 +4949,22 @@
         <v>116</v>
       </c>
       <c r="D11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -4972,22 +4972,22 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -4995,22 +4995,22 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -5018,22 +5018,22 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -5041,22 +5041,22 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -5064,22 +5064,22 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -5087,22 +5087,22 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -5110,22 +5110,22 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -5133,22 +5133,22 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E19" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -5621,7 +5621,7 @@
         <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -5629,7 +5629,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -5637,7 +5637,7 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -5645,7 +5645,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -5653,7 +5653,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -5661,7 +5661,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
@@ -5669,7 +5669,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -5677,7 +5677,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -5685,7 +5685,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -6784,28 +6784,28 @@
         <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -6813,28 +6813,28 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -6842,28 +6842,28 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -6871,28 +6871,28 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -6900,28 +6900,28 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -6929,28 +6929,28 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -6958,28 +6958,28 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -6987,28 +6987,28 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
+        <v>350</v>
+      </c>
+      <c r="D18" t="s">
+        <v>350</v>
+      </c>
+      <c r="E18" t="s">
+        <v>350</v>
+      </c>
+      <c r="F18" t="s">
+        <v>350</v>
+      </c>
+      <c r="G18" t="s">
         <v>351</v>
       </c>
-      <c r="D18" t="s">
+      <c r="H18" t="s">
         <v>351</v>
       </c>
-      <c r="E18" t="s">
+      <c r="I18" t="s">
         <v>351</v>
       </c>
-      <c r="F18" t="s">
-        <v>351</v>
-      </c>
-      <c r="G18" t="s">
-        <v>352</v>
-      </c>
-      <c r="H18" t="s">
-        <v>352</v>
-      </c>
-      <c r="I18" t="s">
-        <v>352</v>
-      </c>
       <c r="K18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -7016,28 +7016,28 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G19" t="s">
+        <v>350</v>
+      </c>
+      <c r="H19" t="s">
+        <v>350</v>
+      </c>
+      <c r="I19" t="s">
+        <v>350</v>
+      </c>
+      <c r="K19" t="s">
         <v>351</v>
-      </c>
-      <c r="H19" t="s">
-        <v>351</v>
-      </c>
-      <c r="I19" t="s">
-        <v>351</v>
-      </c>
-      <c r="K19" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -7486,16 +7486,16 @@
         <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -7503,16 +7503,16 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -7520,16 +7520,16 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -7537,16 +7537,16 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -7554,16 +7554,16 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -7571,16 +7571,16 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D16" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E16" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G16" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -7588,16 +7588,16 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -7605,16 +7605,16 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -7622,16 +7622,16 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D19" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E19" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G19" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
@@ -8151,28 +8151,28 @@
         <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -8180,28 +8180,28 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -8209,28 +8209,28 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -8238,28 +8238,28 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -8267,28 +8267,28 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -8296,28 +8296,28 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
+        <v>358</v>
+      </c>
+      <c r="D16" t="s">
+        <v>357</v>
+      </c>
+      <c r="E16" t="s">
+        <v>357</v>
+      </c>
+      <c r="F16" t="s">
+        <v>357</v>
+      </c>
+      <c r="G16" t="s">
         <v>359</v>
       </c>
-      <c r="D16" t="s">
-        <v>358</v>
-      </c>
-      <c r="E16" t="s">
-        <v>358</v>
-      </c>
-      <c r="F16" t="s">
-        <v>358</v>
-      </c>
-      <c r="G16" t="s">
-        <v>360</v>
-      </c>
       <c r="H16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -8325,28 +8325,28 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
+        <v>359</v>
+      </c>
+      <c r="D17" t="s">
         <v>360</v>
       </c>
-      <c r="D17" t="s">
-        <v>361</v>
-      </c>
       <c r="E17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -8354,28 +8354,28 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -8383,28 +8383,28 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -8666,8 +8666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8772,7 +8772,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="1">
-        <v>42155</v>
+        <v>42156</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -8783,7 +8783,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="1">
-        <v>42141</v>
+        <v>42157</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -8794,7 +8794,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="1">
-        <v>42092</v>
+        <v>42158</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -8805,7 +8805,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="1">
-        <v>42093</v>
+        <v>42159</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -8816,7 +8816,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="1">
-        <v>42095</v>
+        <v>42160</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -8827,7 +8827,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="1">
-        <v>42096</v>
+        <v>42161</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -8838,7 +8838,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="1">
-        <v>42097</v>
+        <v>42162</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -8849,7 +8849,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="1">
-        <v>42098</v>
+        <v>42163</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -8860,7 +8860,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="1">
-        <v>42099</v>
+        <v>42164</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -8871,7 +8871,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="1">
-        <v>42100</v>
+        <v>42165</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -8882,7 +8882,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="1">
-        <v>42101</v>
+        <v>42166</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -8893,7 +8893,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="1">
-        <v>42102</v>
+        <v>42167</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -8904,7 +8904,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="1">
-        <v>42103</v>
+        <v>42168</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -8915,7 +8915,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="1">
-        <v>42104</v>
+        <v>42169</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -9073,16 +9073,16 @@
         <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -9090,16 +9090,16 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -9107,16 +9107,16 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
+        <v>373</v>
+      </c>
+      <c r="D13" t="s">
         <v>374</v>
       </c>
-      <c r="D13" t="s">
-        <v>375</v>
-      </c>
       <c r="E13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -9124,16 +9124,16 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -9141,16 +9141,16 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -9158,16 +9158,16 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
+        <v>376</v>
+      </c>
+      <c r="D16" t="s">
         <v>377</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>377</v>
+      </c>
+      <c r="F16" t="s">
         <v>378</v>
-      </c>
-      <c r="E16" t="s">
-        <v>378</v>
-      </c>
-      <c r="F16" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -9175,16 +9175,16 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
+        <v>377</v>
+      </c>
+      <c r="D17" t="s">
         <v>378</v>
       </c>
-      <c r="D17" t="s">
-        <v>379</v>
-      </c>
       <c r="E17" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -9192,16 +9192,16 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
+        <v>378</v>
+      </c>
+      <c r="D18" t="s">
         <v>379</v>
       </c>
-      <c r="D18" t="s">
-        <v>380</v>
-      </c>
       <c r="E18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -9209,16 +9209,16 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D19" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E19" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -9701,25 +9701,25 @@
         <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -9727,25 +9727,25 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -9753,25 +9753,25 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -9779,25 +9779,25 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -9805,25 +9805,25 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -9831,25 +9831,25 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
@@ -9857,25 +9857,25 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
@@ -9883,25 +9883,25 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
@@ -9912,22 +9912,22 @@
         <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
@@ -10389,19 +10389,19 @@
         <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -10409,19 +10409,19 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -10429,19 +10429,19 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -10449,19 +10449,19 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -10469,19 +10469,19 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F15" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G15" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H15" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -10489,19 +10489,19 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D16" t="s">
+        <v>452</v>
+      </c>
+      <c r="F16" t="s">
         <v>453</v>
       </c>
-      <c r="F16" t="s">
-        <v>454</v>
-      </c>
       <c r="G16" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H16" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -10509,19 +10509,19 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D17" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F17" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G17" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -10529,19 +10529,19 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H18" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -10549,19 +10549,19 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D19" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -11073,22 +11073,22 @@
         <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="J11" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -11096,22 +11096,22 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -11119,22 +11119,22 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -11142,22 +11142,22 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -11165,22 +11165,22 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -11188,22 +11188,22 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D16" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -11211,22 +11211,22 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G17" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J17" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -11234,22 +11234,22 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D18" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E18" t="s">
+        <v>396</v>
+      </c>
+      <c r="F18" t="s">
+        <v>398</v>
+      </c>
+      <c r="G18" t="s">
         <v>397</v>
       </c>
-      <c r="F18" t="s">
-        <v>399</v>
-      </c>
-      <c r="G18" t="s">
-        <v>398</v>
-      </c>
       <c r="J18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -11257,22 +11257,22 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D19" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E19" t="s">
+        <v>397</v>
+      </c>
+      <c r="F19" t="s">
+        <v>397</v>
+      </c>
+      <c r="G19" t="s">
         <v>398</v>
       </c>
-      <c r="F19" t="s">
-        <v>398</v>
-      </c>
-      <c r="G19" t="s">
-        <v>399</v>
-      </c>
       <c r="J19" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -11739,22 +11739,22 @@
         <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -11762,22 +11762,22 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -11785,22 +11785,22 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D13" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E13" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -11808,22 +11808,22 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E14" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -11831,22 +11831,22 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
+        <v>409</v>
+      </c>
+      <c r="D15" t="s">
         <v>410</v>
       </c>
-      <c r="D15" t="s">
-        <v>411</v>
-      </c>
       <c r="E15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -11854,22 +11854,22 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -11877,22 +11877,22 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -11900,22 +11900,22 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -11923,22 +11923,22 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D19" t="s">
+        <v>414</v>
+      </c>
+      <c r="E19" t="s">
+        <v>414</v>
+      </c>
+      <c r="F19" t="s">
         <v>415</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
         <v>415</v>
       </c>
-      <c r="F19" t="s">
-        <v>416</v>
-      </c>
-      <c r="G19" t="s">
-        <v>416</v>
-      </c>
       <c r="I19" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -12368,10 +12368,10 @@
         <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -12379,10 +12379,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -12390,10 +12390,10 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -12401,10 +12401,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -12412,10 +12412,10 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -12423,10 +12423,10 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D16" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -12434,10 +12434,10 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
@@ -12445,10 +12445,10 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -12456,10 +12456,10 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
@@ -12882,7 +12882,7 @@
         <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -12890,7 +12890,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -12898,7 +12898,7 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -12906,7 +12906,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -12914,7 +12914,7 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -12922,7 +12922,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
@@ -12930,7 +12930,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -12938,7 +12938,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -12946,7 +12946,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -13463,10 +13463,10 @@
         <v>125</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>125</v>
@@ -15926,7 +15926,7 @@
   <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16224,22 +16224,22 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>250</v>
+        <v>456</v>
       </c>
       <c r="D15" t="s">
-        <v>250</v>
+        <v>456</v>
       </c>
       <c r="E15" t="s">
-        <v>250</v>
+        <v>456</v>
       </c>
       <c r="F15" t="s">
-        <v>250</v>
+        <v>456</v>
       </c>
       <c r="H15" t="s">
-        <v>250</v>
+        <v>456</v>
       </c>
       <c r="I15" t="s">
-        <v>250</v>
+        <v>456</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -16247,22 +16247,22 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -16270,22 +16270,22 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -16293,22 +16293,22 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -16316,22 +16316,22 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -16593,8 +16593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16698,7 +16698,7 @@
         <v>4.030671296296297E-3</v>
       </c>
       <c r="G3" s="3">
-        <v>3.7453703703703707E-3</v>
+        <v>4.4398148148148148E-3</v>
       </c>
       <c r="H3" s="3">
         <v>4.2187500000000003E-3</v>
@@ -16812,25 +16812,25 @@
         <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -16838,25 +16838,25 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -16864,25 +16864,25 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -16890,25 +16890,25 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -16916,25 +16916,25 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -16942,25 +16942,25 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -16968,25 +16968,25 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -16994,25 +16994,25 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -17020,25 +17020,25 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -18107,19 +18107,19 @@
         <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -18127,19 +18127,19 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D12" t="s">
+        <v>269</v>
+      </c>
+      <c r="E12" t="s">
         <v>270</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>270</v>
       </c>
-      <c r="E12" t="s">
-        <v>271</v>
-      </c>
-      <c r="F12" t="s">
-        <v>271</v>
-      </c>
       <c r="G12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -18167,19 +18167,19 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E14" t="s">
+        <v>269</v>
+      </c>
+      <c r="F14" t="s">
+        <v>269</v>
+      </c>
+      <c r="G14" t="s">
         <v>270</v>
-      </c>
-      <c r="F14" t="s">
-        <v>270</v>
-      </c>
-      <c r="G14" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -18207,19 +18207,19 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -18227,19 +18227,19 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -18247,19 +18247,19 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -18267,19 +18267,19 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
